--- a/assignment_2/hpi-data-2016.xlsx
+++ b/assignment_2/hpi-data-2016.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10904"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_7AE817BBC5F677E27C05BF1745F141905994BD07" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="15" windowWidth="20370" windowHeight="10065" tabRatio="871"/>
+    <workbookView xWindow="45" yWindow="15" windowWidth="20370" windowHeight="10065" tabRatio="871" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Title Page" sheetId="26" r:id="rId1"/>
@@ -17,7 +18,14 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Complete HPI data'!$B$6:$O$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Rank order'!$B$7:$J$7</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="191028" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -932,16 +940,16 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="8">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="#,##0.000_ ;\-#,##0.000\ "/>
-    <numFmt numFmtId="168" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="169" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="#,##0.000_ ;\-#,##0.000\ "/>
+    <numFmt numFmtId="169" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="170" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
   <fonts count="37" x14ac:knownFonts="1">
     <font>
@@ -2015,7 +2023,7 @@
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2050,28 +2058,28 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2115,7 +2123,7 @@
     <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2125,33 +2133,33 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="18" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="18" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="13" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="13" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="18" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="18" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="11" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2169,33 +2177,33 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="18" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="18" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="18" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="18" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="18" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="18" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="18" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="18" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
@@ -2254,10 +2262,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2311,7 +2319,7 @@
     <xf numFmtId="2" fontId="32" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="18" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2326,28 +2334,28 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="18" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="18" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="18" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="18" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="18" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="18" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="18" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2359,7 +2367,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="13" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="18" fillId="13" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2368,10 +2376,10 @@
     <xf numFmtId="9" fontId="18" fillId="13" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="18" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="18" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="16" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -2451,13 +2459,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="18" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="18" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="12" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="12" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="13" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="18" fillId="13" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="12" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2466,19 +2474,19 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="15" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="18" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="10" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="10" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2503,26 +2511,26 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="18" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="11" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="11" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="12" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="18" fillId="12" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="18" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="18" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="18" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="11" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="11" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="13" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="18" fillId="13" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="12" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2531,52 +2539,52 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="21" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="14" fillId="0" borderId="15" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="14" fillId="0" borderId="21" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="18" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="13" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="13" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="11" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="18" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="11" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="13" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="13" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="18" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="18" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="12" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="12" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="13" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2587,13 +2595,13 @@
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -2606,28 +2614,28 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="11" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="11" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="11" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="11" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="14" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="14" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="13" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="13" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="13" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="13" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2636,13 +2644,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="13" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="13" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="17" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="14" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="14" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="17" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2651,19 +2659,19 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="13" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="13" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="14" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="14" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="11" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="11" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="11" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="11" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="11" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="11" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="13" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2678,10 +2686,10 @@
     <xf numFmtId="9" fontId="2" fillId="11" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="18" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="18" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2713,19 +2721,19 @@
     <xf numFmtId="0" fontId="12" fillId="17" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="12" fillId="17" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="12" fillId="17" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2734,19 +2742,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="18" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="18" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="18" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -2758,8 +2766,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="11" borderId="29" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2768,16 +2776,16 @@
     <xf numFmtId="9" fontId="2" fillId="13" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="19" fillId="7" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="19" fillId="7" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="16" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="18" fillId="16" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="16" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="18" fillId="16" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="16" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="18" fillId="16" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="13" borderId="52" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2861,11 +2869,11 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Comma 2" xfId="2"/>
+    <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 4" xfId="4"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2888,6 +2896,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -2909,7 +2920,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="nef_strapline_cmyk"/>
+        <xdr:cNvPr id="3" name="Picture 2" descr="nef_strapline_cmyk">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2964,7 +2981,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4" descr="https://photos-1.dropbox.com/t/2/AAA501GVg4pLpiseIZuvlxS8u3TyhNIx31Z95OPWAWX22g/12/481718159/png/32x32/1/1468522800/0/2/HPI_LOGO-SMALL.png/EKij2fYDGIQCIAcoBw/Obivaknroe2xXbqKwrJbWoGNfJWIHk-RPHJdLINpdYI?size_mode=3&amp;size=800x600&amp;dl=0"/>
+        <xdr:cNvPr id="5" name="Picture 4" descr="https://photos-1.dropbox.com/t/2/AAA501GVg4pLpiseIZuvlxS8u3TyhNIx31Z95OPWAWX22g/12/481718159/png/32x32/1/1468522800/0/2/HPI_LOGO-SMALL.png/EKij2fYDGIQCIAcoBw/Obivaknroe2xXbqKwrJbWoGNfJWIHk-RPHJdLINpdYI?size_mode=3&amp;size=800x600&amp;dl=0">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3024,7 +3047,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="https://photos-1.dropbox.com/t/2/AAA501GVg4pLpiseIZuvlxS8u3TyhNIx31Z95OPWAWX22g/12/481718159/png/32x32/1/1468522800/0/2/HPI_LOGO-SMALL.png/EKij2fYDGIQCIAcoBw/Obivaknroe2xXbqKwrJbWoGNfJWIHk-RPHJdLINpdYI?size_mode=3&amp;size=800x600&amp;dl=0"/>
+        <xdr:cNvPr id="3" name="Picture 2" descr="https://photos-1.dropbox.com/t/2/AAA501GVg4pLpiseIZuvlxS8u3TyhNIx31Z95OPWAWX22g/12/481718159/png/32x32/1/1468522800/0/2/HPI_LOGO-SMALL.png/EKij2fYDGIQCIAcoBw/Obivaknroe2xXbqKwrJbWoGNfJWIHk-RPHJdLINpdYI?size_mode=3&amp;size=800x600&amp;dl=0">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3084,7 +3113,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="https://photos-1.dropbox.com/t/2/AAA501GVg4pLpiseIZuvlxS8u3TyhNIx31Z95OPWAWX22g/12/481718159/png/32x32/1/1468522800/0/2/HPI_LOGO-SMALL.png/EKij2fYDGIQCIAcoBw/Obivaknroe2xXbqKwrJbWoGNfJWIHk-RPHJdLINpdYI?size_mode=3&amp;size=800x600&amp;dl=0"/>
+        <xdr:cNvPr id="3" name="Picture 2" descr="https://photos-1.dropbox.com/t/2/AAA501GVg4pLpiseIZuvlxS8u3TyhNIx31Z95OPWAWX22g/12/481718159/png/32x32/1/1468522800/0/2/HPI_LOGO-SMALL.png/EKij2fYDGIQCIAcoBw/Obivaknroe2xXbqKwrJbWoGNfJWIHk-RPHJdLINpdYI?size_mode=3&amp;size=800x600&amp;dl=0">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3144,7 +3179,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3" descr="https://photos-1.dropbox.com/t/2/AAA501GVg4pLpiseIZuvlxS8u3TyhNIx31Z95OPWAWX22g/12/481718159/png/32x32/1/1468522800/0/2/HPI_LOGO-SMALL.png/EKij2fYDGIQCIAcoBw/Obivaknroe2xXbqKwrJbWoGNfJWIHk-RPHJdLINpdYI?size_mode=3&amp;size=800x600&amp;dl=0"/>
+        <xdr:cNvPr id="4" name="Picture 3" descr="https://photos-1.dropbox.com/t/2/AAA501GVg4pLpiseIZuvlxS8u3TyhNIx31Z95OPWAWX22g/12/481718159/png/32x32/1/1468522800/0/2/HPI_LOGO-SMALL.png/EKij2fYDGIQCIAcoBw/Obivaknroe2xXbqKwrJbWoGNfJWIHk-RPHJdLINpdYI?size_mode=3&amp;size=800x600&amp;dl=0">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3204,7 +3245,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3" descr="https://photos-1.dropbox.com/t/2/AAA501GVg4pLpiseIZuvlxS8u3TyhNIx31Z95OPWAWX22g/12/481718159/png/32x32/1/1468522800/0/2/HPI_LOGO-SMALL.png/EKij2fYDGIQCIAcoBw/Obivaknroe2xXbqKwrJbWoGNfJWIHk-RPHJdLINpdYI?size_mode=3&amp;size=800x600&amp;dl=0"/>
+        <xdr:cNvPr id="4" name="Picture 3" descr="https://photos-1.dropbox.com/t/2/AAA501GVg4pLpiseIZuvlxS8u3TyhNIx31Z95OPWAWX22g/12/481718159/png/32x32/1/1468522800/0/2/HPI_LOGO-SMALL.png/EKij2fYDGIQCIAcoBw/Obivaknroe2xXbqKwrJbWoGNfJWIHk-RPHJdLINpdYI?size_mode=3&amp;size=800x600&amp;dl=0">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3290,7 +3337,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3323,9 +3370,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3358,6 +3422,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3533,403 +3614,403 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A59" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.140625" style="119" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="119"/>
-    <col min="3" max="3" width="3.5703125" style="119" customWidth="1"/>
-    <col min="4" max="12" width="9.140625" style="119"/>
-    <col min="13" max="13" width="5.42578125" style="119" customWidth="1"/>
-    <col min="14" max="257" width="9.140625" style="119"/>
-    <col min="258" max="258" width="2.140625" style="119" customWidth="1"/>
-    <col min="259" max="259" width="9.140625" style="119"/>
-    <col min="260" max="260" width="3.5703125" style="119" customWidth="1"/>
-    <col min="261" max="268" width="9.140625" style="119"/>
+    <col min="1" max="1" width="2.15234375" style="119" customWidth="1"/>
+    <col min="2" max="2" width="9.14453125" style="119"/>
+    <col min="3" max="3" width="3.62890625" style="119" customWidth="1"/>
+    <col min="4" max="12" width="9.14453125" style="119"/>
+    <col min="13" max="13" width="5.37890625" style="119" customWidth="1"/>
+    <col min="14" max="257" width="9.14453125" style="119"/>
+    <col min="258" max="258" width="2.15234375" style="119" customWidth="1"/>
+    <col min="259" max="259" width="9.14453125" style="119"/>
+    <col min="260" max="260" width="3.62890625" style="119" customWidth="1"/>
+    <col min="261" max="268" width="9.14453125" style="119"/>
     <col min="269" max="269" width="16.140625" style="119" customWidth="1"/>
-    <col min="270" max="513" width="9.140625" style="119"/>
-    <col min="514" max="514" width="2.140625" style="119" customWidth="1"/>
-    <col min="515" max="515" width="9.140625" style="119"/>
-    <col min="516" max="516" width="3.5703125" style="119" customWidth="1"/>
-    <col min="517" max="524" width="9.140625" style="119"/>
+    <col min="270" max="513" width="9.14453125" style="119"/>
+    <col min="514" max="514" width="2.15234375" style="119" customWidth="1"/>
+    <col min="515" max="515" width="9.14453125" style="119"/>
+    <col min="516" max="516" width="3.62890625" style="119" customWidth="1"/>
+    <col min="517" max="524" width="9.14453125" style="119"/>
     <col min="525" max="525" width="16.140625" style="119" customWidth="1"/>
-    <col min="526" max="769" width="9.140625" style="119"/>
-    <col min="770" max="770" width="2.140625" style="119" customWidth="1"/>
-    <col min="771" max="771" width="9.140625" style="119"/>
-    <col min="772" max="772" width="3.5703125" style="119" customWidth="1"/>
-    <col min="773" max="780" width="9.140625" style="119"/>
+    <col min="526" max="769" width="9.14453125" style="119"/>
+    <col min="770" max="770" width="2.15234375" style="119" customWidth="1"/>
+    <col min="771" max="771" width="9.14453125" style="119"/>
+    <col min="772" max="772" width="3.62890625" style="119" customWidth="1"/>
+    <col min="773" max="780" width="9.14453125" style="119"/>
     <col min="781" max="781" width="16.140625" style="119" customWidth="1"/>
-    <col min="782" max="1025" width="9.140625" style="119"/>
-    <col min="1026" max="1026" width="2.140625" style="119" customWidth="1"/>
-    <col min="1027" max="1027" width="9.140625" style="119"/>
-    <col min="1028" max="1028" width="3.5703125" style="119" customWidth="1"/>
-    <col min="1029" max="1036" width="9.140625" style="119"/>
+    <col min="782" max="1025" width="9.14453125" style="119"/>
+    <col min="1026" max="1026" width="2.15234375" style="119" customWidth="1"/>
+    <col min="1027" max="1027" width="9.14453125" style="119"/>
+    <col min="1028" max="1028" width="3.62890625" style="119" customWidth="1"/>
+    <col min="1029" max="1036" width="9.14453125" style="119"/>
     <col min="1037" max="1037" width="16.140625" style="119" customWidth="1"/>
-    <col min="1038" max="1281" width="9.140625" style="119"/>
-    <col min="1282" max="1282" width="2.140625" style="119" customWidth="1"/>
-    <col min="1283" max="1283" width="9.140625" style="119"/>
-    <col min="1284" max="1284" width="3.5703125" style="119" customWidth="1"/>
-    <col min="1285" max="1292" width="9.140625" style="119"/>
+    <col min="1038" max="1281" width="9.14453125" style="119"/>
+    <col min="1282" max="1282" width="2.15234375" style="119" customWidth="1"/>
+    <col min="1283" max="1283" width="9.14453125" style="119"/>
+    <col min="1284" max="1284" width="3.62890625" style="119" customWidth="1"/>
+    <col min="1285" max="1292" width="9.14453125" style="119"/>
     <col min="1293" max="1293" width="16.140625" style="119" customWidth="1"/>
-    <col min="1294" max="1537" width="9.140625" style="119"/>
-    <col min="1538" max="1538" width="2.140625" style="119" customWidth="1"/>
-    <col min="1539" max="1539" width="9.140625" style="119"/>
-    <col min="1540" max="1540" width="3.5703125" style="119" customWidth="1"/>
-    <col min="1541" max="1548" width="9.140625" style="119"/>
+    <col min="1294" max="1537" width="9.14453125" style="119"/>
+    <col min="1538" max="1538" width="2.15234375" style="119" customWidth="1"/>
+    <col min="1539" max="1539" width="9.14453125" style="119"/>
+    <col min="1540" max="1540" width="3.62890625" style="119" customWidth="1"/>
+    <col min="1541" max="1548" width="9.14453125" style="119"/>
     <col min="1549" max="1549" width="16.140625" style="119" customWidth="1"/>
-    <col min="1550" max="1793" width="9.140625" style="119"/>
-    <col min="1794" max="1794" width="2.140625" style="119" customWidth="1"/>
-    <col min="1795" max="1795" width="9.140625" style="119"/>
-    <col min="1796" max="1796" width="3.5703125" style="119" customWidth="1"/>
-    <col min="1797" max="1804" width="9.140625" style="119"/>
+    <col min="1550" max="1793" width="9.14453125" style="119"/>
+    <col min="1794" max="1794" width="2.15234375" style="119" customWidth="1"/>
+    <col min="1795" max="1795" width="9.14453125" style="119"/>
+    <col min="1796" max="1796" width="3.62890625" style="119" customWidth="1"/>
+    <col min="1797" max="1804" width="9.14453125" style="119"/>
     <col min="1805" max="1805" width="16.140625" style="119" customWidth="1"/>
-    <col min="1806" max="2049" width="9.140625" style="119"/>
-    <col min="2050" max="2050" width="2.140625" style="119" customWidth="1"/>
-    <col min="2051" max="2051" width="9.140625" style="119"/>
-    <col min="2052" max="2052" width="3.5703125" style="119" customWidth="1"/>
-    <col min="2053" max="2060" width="9.140625" style="119"/>
+    <col min="1806" max="2049" width="9.14453125" style="119"/>
+    <col min="2050" max="2050" width="2.15234375" style="119" customWidth="1"/>
+    <col min="2051" max="2051" width="9.14453125" style="119"/>
+    <col min="2052" max="2052" width="3.62890625" style="119" customWidth="1"/>
+    <col min="2053" max="2060" width="9.14453125" style="119"/>
     <col min="2061" max="2061" width="16.140625" style="119" customWidth="1"/>
-    <col min="2062" max="2305" width="9.140625" style="119"/>
-    <col min="2306" max="2306" width="2.140625" style="119" customWidth="1"/>
-    <col min="2307" max="2307" width="9.140625" style="119"/>
-    <col min="2308" max="2308" width="3.5703125" style="119" customWidth="1"/>
-    <col min="2309" max="2316" width="9.140625" style="119"/>
+    <col min="2062" max="2305" width="9.14453125" style="119"/>
+    <col min="2306" max="2306" width="2.15234375" style="119" customWidth="1"/>
+    <col min="2307" max="2307" width="9.14453125" style="119"/>
+    <col min="2308" max="2308" width="3.62890625" style="119" customWidth="1"/>
+    <col min="2309" max="2316" width="9.14453125" style="119"/>
     <col min="2317" max="2317" width="16.140625" style="119" customWidth="1"/>
-    <col min="2318" max="2561" width="9.140625" style="119"/>
-    <col min="2562" max="2562" width="2.140625" style="119" customWidth="1"/>
-    <col min="2563" max="2563" width="9.140625" style="119"/>
-    <col min="2564" max="2564" width="3.5703125" style="119" customWidth="1"/>
-    <col min="2565" max="2572" width="9.140625" style="119"/>
+    <col min="2318" max="2561" width="9.14453125" style="119"/>
+    <col min="2562" max="2562" width="2.15234375" style="119" customWidth="1"/>
+    <col min="2563" max="2563" width="9.14453125" style="119"/>
+    <col min="2564" max="2564" width="3.62890625" style="119" customWidth="1"/>
+    <col min="2565" max="2572" width="9.14453125" style="119"/>
     <col min="2573" max="2573" width="16.140625" style="119" customWidth="1"/>
-    <col min="2574" max="2817" width="9.140625" style="119"/>
-    <col min="2818" max="2818" width="2.140625" style="119" customWidth="1"/>
-    <col min="2819" max="2819" width="9.140625" style="119"/>
-    <col min="2820" max="2820" width="3.5703125" style="119" customWidth="1"/>
-    <col min="2821" max="2828" width="9.140625" style="119"/>
+    <col min="2574" max="2817" width="9.14453125" style="119"/>
+    <col min="2818" max="2818" width="2.15234375" style="119" customWidth="1"/>
+    <col min="2819" max="2819" width="9.14453125" style="119"/>
+    <col min="2820" max="2820" width="3.62890625" style="119" customWidth="1"/>
+    <col min="2821" max="2828" width="9.14453125" style="119"/>
     <col min="2829" max="2829" width="16.140625" style="119" customWidth="1"/>
-    <col min="2830" max="3073" width="9.140625" style="119"/>
-    <col min="3074" max="3074" width="2.140625" style="119" customWidth="1"/>
-    <col min="3075" max="3075" width="9.140625" style="119"/>
-    <col min="3076" max="3076" width="3.5703125" style="119" customWidth="1"/>
-    <col min="3077" max="3084" width="9.140625" style="119"/>
+    <col min="2830" max="3073" width="9.14453125" style="119"/>
+    <col min="3074" max="3074" width="2.15234375" style="119" customWidth="1"/>
+    <col min="3075" max="3075" width="9.14453125" style="119"/>
+    <col min="3076" max="3076" width="3.62890625" style="119" customWidth="1"/>
+    <col min="3077" max="3084" width="9.14453125" style="119"/>
     <col min="3085" max="3085" width="16.140625" style="119" customWidth="1"/>
-    <col min="3086" max="3329" width="9.140625" style="119"/>
-    <col min="3330" max="3330" width="2.140625" style="119" customWidth="1"/>
-    <col min="3331" max="3331" width="9.140625" style="119"/>
-    <col min="3332" max="3332" width="3.5703125" style="119" customWidth="1"/>
-    <col min="3333" max="3340" width="9.140625" style="119"/>
+    <col min="3086" max="3329" width="9.14453125" style="119"/>
+    <col min="3330" max="3330" width="2.15234375" style="119" customWidth="1"/>
+    <col min="3331" max="3331" width="9.14453125" style="119"/>
+    <col min="3332" max="3332" width="3.62890625" style="119" customWidth="1"/>
+    <col min="3333" max="3340" width="9.14453125" style="119"/>
     <col min="3341" max="3341" width="16.140625" style="119" customWidth="1"/>
-    <col min="3342" max="3585" width="9.140625" style="119"/>
-    <col min="3586" max="3586" width="2.140625" style="119" customWidth="1"/>
-    <col min="3587" max="3587" width="9.140625" style="119"/>
-    <col min="3588" max="3588" width="3.5703125" style="119" customWidth="1"/>
-    <col min="3589" max="3596" width="9.140625" style="119"/>
+    <col min="3342" max="3585" width="9.14453125" style="119"/>
+    <col min="3586" max="3586" width="2.15234375" style="119" customWidth="1"/>
+    <col min="3587" max="3587" width="9.14453125" style="119"/>
+    <col min="3588" max="3588" width="3.62890625" style="119" customWidth="1"/>
+    <col min="3589" max="3596" width="9.14453125" style="119"/>
     <col min="3597" max="3597" width="16.140625" style="119" customWidth="1"/>
-    <col min="3598" max="3841" width="9.140625" style="119"/>
-    <col min="3842" max="3842" width="2.140625" style="119" customWidth="1"/>
-    <col min="3843" max="3843" width="9.140625" style="119"/>
-    <col min="3844" max="3844" width="3.5703125" style="119" customWidth="1"/>
-    <col min="3845" max="3852" width="9.140625" style="119"/>
+    <col min="3598" max="3841" width="9.14453125" style="119"/>
+    <col min="3842" max="3842" width="2.15234375" style="119" customWidth="1"/>
+    <col min="3843" max="3843" width="9.14453125" style="119"/>
+    <col min="3844" max="3844" width="3.62890625" style="119" customWidth="1"/>
+    <col min="3845" max="3852" width="9.14453125" style="119"/>
     <col min="3853" max="3853" width="16.140625" style="119" customWidth="1"/>
-    <col min="3854" max="4097" width="9.140625" style="119"/>
-    <col min="4098" max="4098" width="2.140625" style="119" customWidth="1"/>
-    <col min="4099" max="4099" width="9.140625" style="119"/>
-    <col min="4100" max="4100" width="3.5703125" style="119" customWidth="1"/>
-    <col min="4101" max="4108" width="9.140625" style="119"/>
+    <col min="3854" max="4097" width="9.14453125" style="119"/>
+    <col min="4098" max="4098" width="2.15234375" style="119" customWidth="1"/>
+    <col min="4099" max="4099" width="9.14453125" style="119"/>
+    <col min="4100" max="4100" width="3.62890625" style="119" customWidth="1"/>
+    <col min="4101" max="4108" width="9.14453125" style="119"/>
     <col min="4109" max="4109" width="16.140625" style="119" customWidth="1"/>
-    <col min="4110" max="4353" width="9.140625" style="119"/>
-    <col min="4354" max="4354" width="2.140625" style="119" customWidth="1"/>
-    <col min="4355" max="4355" width="9.140625" style="119"/>
-    <col min="4356" max="4356" width="3.5703125" style="119" customWidth="1"/>
-    <col min="4357" max="4364" width="9.140625" style="119"/>
+    <col min="4110" max="4353" width="9.14453125" style="119"/>
+    <col min="4354" max="4354" width="2.15234375" style="119" customWidth="1"/>
+    <col min="4355" max="4355" width="9.14453125" style="119"/>
+    <col min="4356" max="4356" width="3.62890625" style="119" customWidth="1"/>
+    <col min="4357" max="4364" width="9.14453125" style="119"/>
     <col min="4365" max="4365" width="16.140625" style="119" customWidth="1"/>
-    <col min="4366" max="4609" width="9.140625" style="119"/>
-    <col min="4610" max="4610" width="2.140625" style="119" customWidth="1"/>
-    <col min="4611" max="4611" width="9.140625" style="119"/>
-    <col min="4612" max="4612" width="3.5703125" style="119" customWidth="1"/>
-    <col min="4613" max="4620" width="9.140625" style="119"/>
+    <col min="4366" max="4609" width="9.14453125" style="119"/>
+    <col min="4610" max="4610" width="2.15234375" style="119" customWidth="1"/>
+    <col min="4611" max="4611" width="9.14453125" style="119"/>
+    <col min="4612" max="4612" width="3.62890625" style="119" customWidth="1"/>
+    <col min="4613" max="4620" width="9.14453125" style="119"/>
     <col min="4621" max="4621" width="16.140625" style="119" customWidth="1"/>
-    <col min="4622" max="4865" width="9.140625" style="119"/>
-    <col min="4866" max="4866" width="2.140625" style="119" customWidth="1"/>
-    <col min="4867" max="4867" width="9.140625" style="119"/>
-    <col min="4868" max="4868" width="3.5703125" style="119" customWidth="1"/>
-    <col min="4869" max="4876" width="9.140625" style="119"/>
+    <col min="4622" max="4865" width="9.14453125" style="119"/>
+    <col min="4866" max="4866" width="2.15234375" style="119" customWidth="1"/>
+    <col min="4867" max="4867" width="9.14453125" style="119"/>
+    <col min="4868" max="4868" width="3.62890625" style="119" customWidth="1"/>
+    <col min="4869" max="4876" width="9.14453125" style="119"/>
     <col min="4877" max="4877" width="16.140625" style="119" customWidth="1"/>
-    <col min="4878" max="5121" width="9.140625" style="119"/>
-    <col min="5122" max="5122" width="2.140625" style="119" customWidth="1"/>
-    <col min="5123" max="5123" width="9.140625" style="119"/>
-    <col min="5124" max="5124" width="3.5703125" style="119" customWidth="1"/>
-    <col min="5125" max="5132" width="9.140625" style="119"/>
+    <col min="4878" max="5121" width="9.14453125" style="119"/>
+    <col min="5122" max="5122" width="2.15234375" style="119" customWidth="1"/>
+    <col min="5123" max="5123" width="9.14453125" style="119"/>
+    <col min="5124" max="5124" width="3.62890625" style="119" customWidth="1"/>
+    <col min="5125" max="5132" width="9.14453125" style="119"/>
     <col min="5133" max="5133" width="16.140625" style="119" customWidth="1"/>
-    <col min="5134" max="5377" width="9.140625" style="119"/>
-    <col min="5378" max="5378" width="2.140625" style="119" customWidth="1"/>
-    <col min="5379" max="5379" width="9.140625" style="119"/>
-    <col min="5380" max="5380" width="3.5703125" style="119" customWidth="1"/>
-    <col min="5381" max="5388" width="9.140625" style="119"/>
+    <col min="5134" max="5377" width="9.14453125" style="119"/>
+    <col min="5378" max="5378" width="2.15234375" style="119" customWidth="1"/>
+    <col min="5379" max="5379" width="9.14453125" style="119"/>
+    <col min="5380" max="5380" width="3.62890625" style="119" customWidth="1"/>
+    <col min="5381" max="5388" width="9.14453125" style="119"/>
     <col min="5389" max="5389" width="16.140625" style="119" customWidth="1"/>
-    <col min="5390" max="5633" width="9.140625" style="119"/>
-    <col min="5634" max="5634" width="2.140625" style="119" customWidth="1"/>
-    <col min="5635" max="5635" width="9.140625" style="119"/>
-    <col min="5636" max="5636" width="3.5703125" style="119" customWidth="1"/>
-    <col min="5637" max="5644" width="9.140625" style="119"/>
+    <col min="5390" max="5633" width="9.14453125" style="119"/>
+    <col min="5634" max="5634" width="2.15234375" style="119" customWidth="1"/>
+    <col min="5635" max="5635" width="9.14453125" style="119"/>
+    <col min="5636" max="5636" width="3.62890625" style="119" customWidth="1"/>
+    <col min="5637" max="5644" width="9.14453125" style="119"/>
     <col min="5645" max="5645" width="16.140625" style="119" customWidth="1"/>
-    <col min="5646" max="5889" width="9.140625" style="119"/>
-    <col min="5890" max="5890" width="2.140625" style="119" customWidth="1"/>
-    <col min="5891" max="5891" width="9.140625" style="119"/>
-    <col min="5892" max="5892" width="3.5703125" style="119" customWidth="1"/>
-    <col min="5893" max="5900" width="9.140625" style="119"/>
+    <col min="5646" max="5889" width="9.14453125" style="119"/>
+    <col min="5890" max="5890" width="2.15234375" style="119" customWidth="1"/>
+    <col min="5891" max="5891" width="9.14453125" style="119"/>
+    <col min="5892" max="5892" width="3.62890625" style="119" customWidth="1"/>
+    <col min="5893" max="5900" width="9.14453125" style="119"/>
     <col min="5901" max="5901" width="16.140625" style="119" customWidth="1"/>
-    <col min="5902" max="6145" width="9.140625" style="119"/>
-    <col min="6146" max="6146" width="2.140625" style="119" customWidth="1"/>
-    <col min="6147" max="6147" width="9.140625" style="119"/>
-    <col min="6148" max="6148" width="3.5703125" style="119" customWidth="1"/>
-    <col min="6149" max="6156" width="9.140625" style="119"/>
+    <col min="5902" max="6145" width="9.14453125" style="119"/>
+    <col min="6146" max="6146" width="2.15234375" style="119" customWidth="1"/>
+    <col min="6147" max="6147" width="9.14453125" style="119"/>
+    <col min="6148" max="6148" width="3.62890625" style="119" customWidth="1"/>
+    <col min="6149" max="6156" width="9.14453125" style="119"/>
     <col min="6157" max="6157" width="16.140625" style="119" customWidth="1"/>
-    <col min="6158" max="6401" width="9.140625" style="119"/>
-    <col min="6402" max="6402" width="2.140625" style="119" customWidth="1"/>
-    <col min="6403" max="6403" width="9.140625" style="119"/>
-    <col min="6404" max="6404" width="3.5703125" style="119" customWidth="1"/>
-    <col min="6405" max="6412" width="9.140625" style="119"/>
+    <col min="6158" max="6401" width="9.14453125" style="119"/>
+    <col min="6402" max="6402" width="2.15234375" style="119" customWidth="1"/>
+    <col min="6403" max="6403" width="9.14453125" style="119"/>
+    <col min="6404" max="6404" width="3.62890625" style="119" customWidth="1"/>
+    <col min="6405" max="6412" width="9.14453125" style="119"/>
     <col min="6413" max="6413" width="16.140625" style="119" customWidth="1"/>
-    <col min="6414" max="6657" width="9.140625" style="119"/>
-    <col min="6658" max="6658" width="2.140625" style="119" customWidth="1"/>
-    <col min="6659" max="6659" width="9.140625" style="119"/>
-    <col min="6660" max="6660" width="3.5703125" style="119" customWidth="1"/>
-    <col min="6661" max="6668" width="9.140625" style="119"/>
+    <col min="6414" max="6657" width="9.14453125" style="119"/>
+    <col min="6658" max="6658" width="2.15234375" style="119" customWidth="1"/>
+    <col min="6659" max="6659" width="9.14453125" style="119"/>
+    <col min="6660" max="6660" width="3.62890625" style="119" customWidth="1"/>
+    <col min="6661" max="6668" width="9.14453125" style="119"/>
     <col min="6669" max="6669" width="16.140625" style="119" customWidth="1"/>
-    <col min="6670" max="6913" width="9.140625" style="119"/>
-    <col min="6914" max="6914" width="2.140625" style="119" customWidth="1"/>
-    <col min="6915" max="6915" width="9.140625" style="119"/>
-    <col min="6916" max="6916" width="3.5703125" style="119" customWidth="1"/>
-    <col min="6917" max="6924" width="9.140625" style="119"/>
+    <col min="6670" max="6913" width="9.14453125" style="119"/>
+    <col min="6914" max="6914" width="2.15234375" style="119" customWidth="1"/>
+    <col min="6915" max="6915" width="9.14453125" style="119"/>
+    <col min="6916" max="6916" width="3.62890625" style="119" customWidth="1"/>
+    <col min="6917" max="6924" width="9.14453125" style="119"/>
     <col min="6925" max="6925" width="16.140625" style="119" customWidth="1"/>
-    <col min="6926" max="7169" width="9.140625" style="119"/>
-    <col min="7170" max="7170" width="2.140625" style="119" customWidth="1"/>
-    <col min="7171" max="7171" width="9.140625" style="119"/>
-    <col min="7172" max="7172" width="3.5703125" style="119" customWidth="1"/>
-    <col min="7173" max="7180" width="9.140625" style="119"/>
+    <col min="6926" max="7169" width="9.14453125" style="119"/>
+    <col min="7170" max="7170" width="2.15234375" style="119" customWidth="1"/>
+    <col min="7171" max="7171" width="9.14453125" style="119"/>
+    <col min="7172" max="7172" width="3.62890625" style="119" customWidth="1"/>
+    <col min="7173" max="7180" width="9.14453125" style="119"/>
     <col min="7181" max="7181" width="16.140625" style="119" customWidth="1"/>
-    <col min="7182" max="7425" width="9.140625" style="119"/>
-    <col min="7426" max="7426" width="2.140625" style="119" customWidth="1"/>
-    <col min="7427" max="7427" width="9.140625" style="119"/>
-    <col min="7428" max="7428" width="3.5703125" style="119" customWidth="1"/>
-    <col min="7429" max="7436" width="9.140625" style="119"/>
+    <col min="7182" max="7425" width="9.14453125" style="119"/>
+    <col min="7426" max="7426" width="2.15234375" style="119" customWidth="1"/>
+    <col min="7427" max="7427" width="9.14453125" style="119"/>
+    <col min="7428" max="7428" width="3.62890625" style="119" customWidth="1"/>
+    <col min="7429" max="7436" width="9.14453125" style="119"/>
     <col min="7437" max="7437" width="16.140625" style="119" customWidth="1"/>
-    <col min="7438" max="7681" width="9.140625" style="119"/>
-    <col min="7682" max="7682" width="2.140625" style="119" customWidth="1"/>
-    <col min="7683" max="7683" width="9.140625" style="119"/>
-    <col min="7684" max="7684" width="3.5703125" style="119" customWidth="1"/>
-    <col min="7685" max="7692" width="9.140625" style="119"/>
+    <col min="7438" max="7681" width="9.14453125" style="119"/>
+    <col min="7682" max="7682" width="2.15234375" style="119" customWidth="1"/>
+    <col min="7683" max="7683" width="9.14453125" style="119"/>
+    <col min="7684" max="7684" width="3.62890625" style="119" customWidth="1"/>
+    <col min="7685" max="7692" width="9.14453125" style="119"/>
     <col min="7693" max="7693" width="16.140625" style="119" customWidth="1"/>
-    <col min="7694" max="7937" width="9.140625" style="119"/>
-    <col min="7938" max="7938" width="2.140625" style="119" customWidth="1"/>
-    <col min="7939" max="7939" width="9.140625" style="119"/>
-    <col min="7940" max="7940" width="3.5703125" style="119" customWidth="1"/>
-    <col min="7941" max="7948" width="9.140625" style="119"/>
+    <col min="7694" max="7937" width="9.14453125" style="119"/>
+    <col min="7938" max="7938" width="2.15234375" style="119" customWidth="1"/>
+    <col min="7939" max="7939" width="9.14453125" style="119"/>
+    <col min="7940" max="7940" width="3.62890625" style="119" customWidth="1"/>
+    <col min="7941" max="7948" width="9.14453125" style="119"/>
     <col min="7949" max="7949" width="16.140625" style="119" customWidth="1"/>
-    <col min="7950" max="8193" width="9.140625" style="119"/>
-    <col min="8194" max="8194" width="2.140625" style="119" customWidth="1"/>
-    <col min="8195" max="8195" width="9.140625" style="119"/>
-    <col min="8196" max="8196" width="3.5703125" style="119" customWidth="1"/>
-    <col min="8197" max="8204" width="9.140625" style="119"/>
+    <col min="7950" max="8193" width="9.14453125" style="119"/>
+    <col min="8194" max="8194" width="2.15234375" style="119" customWidth="1"/>
+    <col min="8195" max="8195" width="9.14453125" style="119"/>
+    <col min="8196" max="8196" width="3.62890625" style="119" customWidth="1"/>
+    <col min="8197" max="8204" width="9.14453125" style="119"/>
     <col min="8205" max="8205" width="16.140625" style="119" customWidth="1"/>
-    <col min="8206" max="8449" width="9.140625" style="119"/>
-    <col min="8450" max="8450" width="2.140625" style="119" customWidth="1"/>
-    <col min="8451" max="8451" width="9.140625" style="119"/>
-    <col min="8452" max="8452" width="3.5703125" style="119" customWidth="1"/>
-    <col min="8453" max="8460" width="9.140625" style="119"/>
+    <col min="8206" max="8449" width="9.14453125" style="119"/>
+    <col min="8450" max="8450" width="2.15234375" style="119" customWidth="1"/>
+    <col min="8451" max="8451" width="9.14453125" style="119"/>
+    <col min="8452" max="8452" width="3.62890625" style="119" customWidth="1"/>
+    <col min="8453" max="8460" width="9.14453125" style="119"/>
     <col min="8461" max="8461" width="16.140625" style="119" customWidth="1"/>
-    <col min="8462" max="8705" width="9.140625" style="119"/>
-    <col min="8706" max="8706" width="2.140625" style="119" customWidth="1"/>
-    <col min="8707" max="8707" width="9.140625" style="119"/>
-    <col min="8708" max="8708" width="3.5703125" style="119" customWidth="1"/>
-    <col min="8709" max="8716" width="9.140625" style="119"/>
+    <col min="8462" max="8705" width="9.14453125" style="119"/>
+    <col min="8706" max="8706" width="2.15234375" style="119" customWidth="1"/>
+    <col min="8707" max="8707" width="9.14453125" style="119"/>
+    <col min="8708" max="8708" width="3.62890625" style="119" customWidth="1"/>
+    <col min="8709" max="8716" width="9.14453125" style="119"/>
     <col min="8717" max="8717" width="16.140625" style="119" customWidth="1"/>
-    <col min="8718" max="8961" width="9.140625" style="119"/>
-    <col min="8962" max="8962" width="2.140625" style="119" customWidth="1"/>
-    <col min="8963" max="8963" width="9.140625" style="119"/>
-    <col min="8964" max="8964" width="3.5703125" style="119" customWidth="1"/>
-    <col min="8965" max="8972" width="9.140625" style="119"/>
+    <col min="8718" max="8961" width="9.14453125" style="119"/>
+    <col min="8962" max="8962" width="2.15234375" style="119" customWidth="1"/>
+    <col min="8963" max="8963" width="9.14453125" style="119"/>
+    <col min="8964" max="8964" width="3.62890625" style="119" customWidth="1"/>
+    <col min="8965" max="8972" width="9.14453125" style="119"/>
     <col min="8973" max="8973" width="16.140625" style="119" customWidth="1"/>
-    <col min="8974" max="9217" width="9.140625" style="119"/>
-    <col min="9218" max="9218" width="2.140625" style="119" customWidth="1"/>
-    <col min="9219" max="9219" width="9.140625" style="119"/>
-    <col min="9220" max="9220" width="3.5703125" style="119" customWidth="1"/>
-    <col min="9221" max="9228" width="9.140625" style="119"/>
+    <col min="8974" max="9217" width="9.14453125" style="119"/>
+    <col min="9218" max="9218" width="2.15234375" style="119" customWidth="1"/>
+    <col min="9219" max="9219" width="9.14453125" style="119"/>
+    <col min="9220" max="9220" width="3.62890625" style="119" customWidth="1"/>
+    <col min="9221" max="9228" width="9.14453125" style="119"/>
     <col min="9229" max="9229" width="16.140625" style="119" customWidth="1"/>
-    <col min="9230" max="9473" width="9.140625" style="119"/>
-    <col min="9474" max="9474" width="2.140625" style="119" customWidth="1"/>
-    <col min="9475" max="9475" width="9.140625" style="119"/>
-    <col min="9476" max="9476" width="3.5703125" style="119" customWidth="1"/>
-    <col min="9477" max="9484" width="9.140625" style="119"/>
+    <col min="9230" max="9473" width="9.14453125" style="119"/>
+    <col min="9474" max="9474" width="2.15234375" style="119" customWidth="1"/>
+    <col min="9475" max="9475" width="9.14453125" style="119"/>
+    <col min="9476" max="9476" width="3.62890625" style="119" customWidth="1"/>
+    <col min="9477" max="9484" width="9.14453125" style="119"/>
     <col min="9485" max="9485" width="16.140625" style="119" customWidth="1"/>
-    <col min="9486" max="9729" width="9.140625" style="119"/>
-    <col min="9730" max="9730" width="2.140625" style="119" customWidth="1"/>
-    <col min="9731" max="9731" width="9.140625" style="119"/>
-    <col min="9732" max="9732" width="3.5703125" style="119" customWidth="1"/>
-    <col min="9733" max="9740" width="9.140625" style="119"/>
+    <col min="9486" max="9729" width="9.14453125" style="119"/>
+    <col min="9730" max="9730" width="2.15234375" style="119" customWidth="1"/>
+    <col min="9731" max="9731" width="9.14453125" style="119"/>
+    <col min="9732" max="9732" width="3.62890625" style="119" customWidth="1"/>
+    <col min="9733" max="9740" width="9.14453125" style="119"/>
     <col min="9741" max="9741" width="16.140625" style="119" customWidth="1"/>
-    <col min="9742" max="9985" width="9.140625" style="119"/>
-    <col min="9986" max="9986" width="2.140625" style="119" customWidth="1"/>
-    <col min="9987" max="9987" width="9.140625" style="119"/>
-    <col min="9988" max="9988" width="3.5703125" style="119" customWidth="1"/>
-    <col min="9989" max="9996" width="9.140625" style="119"/>
+    <col min="9742" max="9985" width="9.14453125" style="119"/>
+    <col min="9986" max="9986" width="2.15234375" style="119" customWidth="1"/>
+    <col min="9987" max="9987" width="9.14453125" style="119"/>
+    <col min="9988" max="9988" width="3.62890625" style="119" customWidth="1"/>
+    <col min="9989" max="9996" width="9.14453125" style="119"/>
     <col min="9997" max="9997" width="16.140625" style="119" customWidth="1"/>
-    <col min="9998" max="10241" width="9.140625" style="119"/>
-    <col min="10242" max="10242" width="2.140625" style="119" customWidth="1"/>
-    <col min="10243" max="10243" width="9.140625" style="119"/>
-    <col min="10244" max="10244" width="3.5703125" style="119" customWidth="1"/>
-    <col min="10245" max="10252" width="9.140625" style="119"/>
+    <col min="9998" max="10241" width="9.14453125" style="119"/>
+    <col min="10242" max="10242" width="2.15234375" style="119" customWidth="1"/>
+    <col min="10243" max="10243" width="9.14453125" style="119"/>
+    <col min="10244" max="10244" width="3.62890625" style="119" customWidth="1"/>
+    <col min="10245" max="10252" width="9.14453125" style="119"/>
     <col min="10253" max="10253" width="16.140625" style="119" customWidth="1"/>
-    <col min="10254" max="10497" width="9.140625" style="119"/>
-    <col min="10498" max="10498" width="2.140625" style="119" customWidth="1"/>
-    <col min="10499" max="10499" width="9.140625" style="119"/>
-    <col min="10500" max="10500" width="3.5703125" style="119" customWidth="1"/>
-    <col min="10501" max="10508" width="9.140625" style="119"/>
+    <col min="10254" max="10497" width="9.14453125" style="119"/>
+    <col min="10498" max="10498" width="2.15234375" style="119" customWidth="1"/>
+    <col min="10499" max="10499" width="9.14453125" style="119"/>
+    <col min="10500" max="10500" width="3.62890625" style="119" customWidth="1"/>
+    <col min="10501" max="10508" width="9.14453125" style="119"/>
     <col min="10509" max="10509" width="16.140625" style="119" customWidth="1"/>
-    <col min="10510" max="10753" width="9.140625" style="119"/>
-    <col min="10754" max="10754" width="2.140625" style="119" customWidth="1"/>
-    <col min="10755" max="10755" width="9.140625" style="119"/>
-    <col min="10756" max="10756" width="3.5703125" style="119" customWidth="1"/>
-    <col min="10757" max="10764" width="9.140625" style="119"/>
+    <col min="10510" max="10753" width="9.14453125" style="119"/>
+    <col min="10754" max="10754" width="2.15234375" style="119" customWidth="1"/>
+    <col min="10755" max="10755" width="9.14453125" style="119"/>
+    <col min="10756" max="10756" width="3.62890625" style="119" customWidth="1"/>
+    <col min="10757" max="10764" width="9.14453125" style="119"/>
     <col min="10765" max="10765" width="16.140625" style="119" customWidth="1"/>
-    <col min="10766" max="11009" width="9.140625" style="119"/>
-    <col min="11010" max="11010" width="2.140625" style="119" customWidth="1"/>
-    <col min="11011" max="11011" width="9.140625" style="119"/>
-    <col min="11012" max="11012" width="3.5703125" style="119" customWidth="1"/>
-    <col min="11013" max="11020" width="9.140625" style="119"/>
+    <col min="10766" max="11009" width="9.14453125" style="119"/>
+    <col min="11010" max="11010" width="2.15234375" style="119" customWidth="1"/>
+    <col min="11011" max="11011" width="9.14453125" style="119"/>
+    <col min="11012" max="11012" width="3.62890625" style="119" customWidth="1"/>
+    <col min="11013" max="11020" width="9.14453125" style="119"/>
     <col min="11021" max="11021" width="16.140625" style="119" customWidth="1"/>
-    <col min="11022" max="11265" width="9.140625" style="119"/>
-    <col min="11266" max="11266" width="2.140625" style="119" customWidth="1"/>
-    <col min="11267" max="11267" width="9.140625" style="119"/>
-    <col min="11268" max="11268" width="3.5703125" style="119" customWidth="1"/>
-    <col min="11269" max="11276" width="9.140625" style="119"/>
+    <col min="11022" max="11265" width="9.14453125" style="119"/>
+    <col min="11266" max="11266" width="2.15234375" style="119" customWidth="1"/>
+    <col min="11267" max="11267" width="9.14453125" style="119"/>
+    <col min="11268" max="11268" width="3.62890625" style="119" customWidth="1"/>
+    <col min="11269" max="11276" width="9.14453125" style="119"/>
     <col min="11277" max="11277" width="16.140625" style="119" customWidth="1"/>
-    <col min="11278" max="11521" width="9.140625" style="119"/>
-    <col min="11522" max="11522" width="2.140625" style="119" customWidth="1"/>
-    <col min="11523" max="11523" width="9.140625" style="119"/>
-    <col min="11524" max="11524" width="3.5703125" style="119" customWidth="1"/>
-    <col min="11525" max="11532" width="9.140625" style="119"/>
+    <col min="11278" max="11521" width="9.14453125" style="119"/>
+    <col min="11522" max="11522" width="2.15234375" style="119" customWidth="1"/>
+    <col min="11523" max="11523" width="9.14453125" style="119"/>
+    <col min="11524" max="11524" width="3.62890625" style="119" customWidth="1"/>
+    <col min="11525" max="11532" width="9.14453125" style="119"/>
     <col min="11533" max="11533" width="16.140625" style="119" customWidth="1"/>
-    <col min="11534" max="11777" width="9.140625" style="119"/>
-    <col min="11778" max="11778" width="2.140625" style="119" customWidth="1"/>
-    <col min="11779" max="11779" width="9.140625" style="119"/>
-    <col min="11780" max="11780" width="3.5703125" style="119" customWidth="1"/>
-    <col min="11781" max="11788" width="9.140625" style="119"/>
+    <col min="11534" max="11777" width="9.14453125" style="119"/>
+    <col min="11778" max="11778" width="2.15234375" style="119" customWidth="1"/>
+    <col min="11779" max="11779" width="9.14453125" style="119"/>
+    <col min="11780" max="11780" width="3.62890625" style="119" customWidth="1"/>
+    <col min="11781" max="11788" width="9.14453125" style="119"/>
     <col min="11789" max="11789" width="16.140625" style="119" customWidth="1"/>
-    <col min="11790" max="12033" width="9.140625" style="119"/>
-    <col min="12034" max="12034" width="2.140625" style="119" customWidth="1"/>
-    <col min="12035" max="12035" width="9.140625" style="119"/>
-    <col min="12036" max="12036" width="3.5703125" style="119" customWidth="1"/>
-    <col min="12037" max="12044" width="9.140625" style="119"/>
+    <col min="11790" max="12033" width="9.14453125" style="119"/>
+    <col min="12034" max="12034" width="2.15234375" style="119" customWidth="1"/>
+    <col min="12035" max="12035" width="9.14453125" style="119"/>
+    <col min="12036" max="12036" width="3.62890625" style="119" customWidth="1"/>
+    <col min="12037" max="12044" width="9.14453125" style="119"/>
     <col min="12045" max="12045" width="16.140625" style="119" customWidth="1"/>
-    <col min="12046" max="12289" width="9.140625" style="119"/>
-    <col min="12290" max="12290" width="2.140625" style="119" customWidth="1"/>
-    <col min="12291" max="12291" width="9.140625" style="119"/>
-    <col min="12292" max="12292" width="3.5703125" style="119" customWidth="1"/>
-    <col min="12293" max="12300" width="9.140625" style="119"/>
+    <col min="12046" max="12289" width="9.14453125" style="119"/>
+    <col min="12290" max="12290" width="2.15234375" style="119" customWidth="1"/>
+    <col min="12291" max="12291" width="9.14453125" style="119"/>
+    <col min="12292" max="12292" width="3.62890625" style="119" customWidth="1"/>
+    <col min="12293" max="12300" width="9.14453125" style="119"/>
     <col min="12301" max="12301" width="16.140625" style="119" customWidth="1"/>
-    <col min="12302" max="12545" width="9.140625" style="119"/>
-    <col min="12546" max="12546" width="2.140625" style="119" customWidth="1"/>
-    <col min="12547" max="12547" width="9.140625" style="119"/>
-    <col min="12548" max="12548" width="3.5703125" style="119" customWidth="1"/>
-    <col min="12549" max="12556" width="9.140625" style="119"/>
+    <col min="12302" max="12545" width="9.14453125" style="119"/>
+    <col min="12546" max="12546" width="2.15234375" style="119" customWidth="1"/>
+    <col min="12547" max="12547" width="9.14453125" style="119"/>
+    <col min="12548" max="12548" width="3.62890625" style="119" customWidth="1"/>
+    <col min="12549" max="12556" width="9.14453125" style="119"/>
     <col min="12557" max="12557" width="16.140625" style="119" customWidth="1"/>
-    <col min="12558" max="12801" width="9.140625" style="119"/>
-    <col min="12802" max="12802" width="2.140625" style="119" customWidth="1"/>
-    <col min="12803" max="12803" width="9.140625" style="119"/>
-    <col min="12804" max="12804" width="3.5703125" style="119" customWidth="1"/>
-    <col min="12805" max="12812" width="9.140625" style="119"/>
+    <col min="12558" max="12801" width="9.14453125" style="119"/>
+    <col min="12802" max="12802" width="2.15234375" style="119" customWidth="1"/>
+    <col min="12803" max="12803" width="9.14453125" style="119"/>
+    <col min="12804" max="12804" width="3.62890625" style="119" customWidth="1"/>
+    <col min="12805" max="12812" width="9.14453125" style="119"/>
     <col min="12813" max="12813" width="16.140625" style="119" customWidth="1"/>
-    <col min="12814" max="13057" width="9.140625" style="119"/>
-    <col min="13058" max="13058" width="2.140625" style="119" customWidth="1"/>
-    <col min="13059" max="13059" width="9.140625" style="119"/>
-    <col min="13060" max="13060" width="3.5703125" style="119" customWidth="1"/>
-    <col min="13061" max="13068" width="9.140625" style="119"/>
+    <col min="12814" max="13057" width="9.14453125" style="119"/>
+    <col min="13058" max="13058" width="2.15234375" style="119" customWidth="1"/>
+    <col min="13059" max="13059" width="9.14453125" style="119"/>
+    <col min="13060" max="13060" width="3.62890625" style="119" customWidth="1"/>
+    <col min="13061" max="13068" width="9.14453125" style="119"/>
     <col min="13069" max="13069" width="16.140625" style="119" customWidth="1"/>
-    <col min="13070" max="13313" width="9.140625" style="119"/>
-    <col min="13314" max="13314" width="2.140625" style="119" customWidth="1"/>
-    <col min="13315" max="13315" width="9.140625" style="119"/>
-    <col min="13316" max="13316" width="3.5703125" style="119" customWidth="1"/>
-    <col min="13317" max="13324" width="9.140625" style="119"/>
+    <col min="13070" max="13313" width="9.14453125" style="119"/>
+    <col min="13314" max="13314" width="2.15234375" style="119" customWidth="1"/>
+    <col min="13315" max="13315" width="9.14453125" style="119"/>
+    <col min="13316" max="13316" width="3.62890625" style="119" customWidth="1"/>
+    <col min="13317" max="13324" width="9.14453125" style="119"/>
     <col min="13325" max="13325" width="16.140625" style="119" customWidth="1"/>
-    <col min="13326" max="13569" width="9.140625" style="119"/>
-    <col min="13570" max="13570" width="2.140625" style="119" customWidth="1"/>
-    <col min="13571" max="13571" width="9.140625" style="119"/>
-    <col min="13572" max="13572" width="3.5703125" style="119" customWidth="1"/>
-    <col min="13573" max="13580" width="9.140625" style="119"/>
+    <col min="13326" max="13569" width="9.14453125" style="119"/>
+    <col min="13570" max="13570" width="2.15234375" style="119" customWidth="1"/>
+    <col min="13571" max="13571" width="9.14453125" style="119"/>
+    <col min="13572" max="13572" width="3.62890625" style="119" customWidth="1"/>
+    <col min="13573" max="13580" width="9.14453125" style="119"/>
     <col min="13581" max="13581" width="16.140625" style="119" customWidth="1"/>
-    <col min="13582" max="13825" width="9.140625" style="119"/>
-    <col min="13826" max="13826" width="2.140625" style="119" customWidth="1"/>
-    <col min="13827" max="13827" width="9.140625" style="119"/>
-    <col min="13828" max="13828" width="3.5703125" style="119" customWidth="1"/>
-    <col min="13829" max="13836" width="9.140625" style="119"/>
+    <col min="13582" max="13825" width="9.14453125" style="119"/>
+    <col min="13826" max="13826" width="2.15234375" style="119" customWidth="1"/>
+    <col min="13827" max="13827" width="9.14453125" style="119"/>
+    <col min="13828" max="13828" width="3.62890625" style="119" customWidth="1"/>
+    <col min="13829" max="13836" width="9.14453125" style="119"/>
     <col min="13837" max="13837" width="16.140625" style="119" customWidth="1"/>
-    <col min="13838" max="14081" width="9.140625" style="119"/>
-    <col min="14082" max="14082" width="2.140625" style="119" customWidth="1"/>
-    <col min="14083" max="14083" width="9.140625" style="119"/>
-    <col min="14084" max="14084" width="3.5703125" style="119" customWidth="1"/>
-    <col min="14085" max="14092" width="9.140625" style="119"/>
+    <col min="13838" max="14081" width="9.14453125" style="119"/>
+    <col min="14082" max="14082" width="2.15234375" style="119" customWidth="1"/>
+    <col min="14083" max="14083" width="9.14453125" style="119"/>
+    <col min="14084" max="14084" width="3.62890625" style="119" customWidth="1"/>
+    <col min="14085" max="14092" width="9.14453125" style="119"/>
     <col min="14093" max="14093" width="16.140625" style="119" customWidth="1"/>
-    <col min="14094" max="14337" width="9.140625" style="119"/>
-    <col min="14338" max="14338" width="2.140625" style="119" customWidth="1"/>
-    <col min="14339" max="14339" width="9.140625" style="119"/>
-    <col min="14340" max="14340" width="3.5703125" style="119" customWidth="1"/>
-    <col min="14341" max="14348" width="9.140625" style="119"/>
+    <col min="14094" max="14337" width="9.14453125" style="119"/>
+    <col min="14338" max="14338" width="2.15234375" style="119" customWidth="1"/>
+    <col min="14339" max="14339" width="9.14453125" style="119"/>
+    <col min="14340" max="14340" width="3.62890625" style="119" customWidth="1"/>
+    <col min="14341" max="14348" width="9.14453125" style="119"/>
     <col min="14349" max="14349" width="16.140625" style="119" customWidth="1"/>
-    <col min="14350" max="14593" width="9.140625" style="119"/>
-    <col min="14594" max="14594" width="2.140625" style="119" customWidth="1"/>
-    <col min="14595" max="14595" width="9.140625" style="119"/>
-    <col min="14596" max="14596" width="3.5703125" style="119" customWidth="1"/>
-    <col min="14597" max="14604" width="9.140625" style="119"/>
+    <col min="14350" max="14593" width="9.14453125" style="119"/>
+    <col min="14594" max="14594" width="2.15234375" style="119" customWidth="1"/>
+    <col min="14595" max="14595" width="9.14453125" style="119"/>
+    <col min="14596" max="14596" width="3.62890625" style="119" customWidth="1"/>
+    <col min="14597" max="14604" width="9.14453125" style="119"/>
     <col min="14605" max="14605" width="16.140625" style="119" customWidth="1"/>
-    <col min="14606" max="14849" width="9.140625" style="119"/>
-    <col min="14850" max="14850" width="2.140625" style="119" customWidth="1"/>
-    <col min="14851" max="14851" width="9.140625" style="119"/>
-    <col min="14852" max="14852" width="3.5703125" style="119" customWidth="1"/>
-    <col min="14853" max="14860" width="9.140625" style="119"/>
+    <col min="14606" max="14849" width="9.14453125" style="119"/>
+    <col min="14850" max="14850" width="2.15234375" style="119" customWidth="1"/>
+    <col min="14851" max="14851" width="9.14453125" style="119"/>
+    <col min="14852" max="14852" width="3.62890625" style="119" customWidth="1"/>
+    <col min="14853" max="14860" width="9.14453125" style="119"/>
     <col min="14861" max="14861" width="16.140625" style="119" customWidth="1"/>
-    <col min="14862" max="15105" width="9.140625" style="119"/>
-    <col min="15106" max="15106" width="2.140625" style="119" customWidth="1"/>
-    <col min="15107" max="15107" width="9.140625" style="119"/>
-    <col min="15108" max="15108" width="3.5703125" style="119" customWidth="1"/>
-    <col min="15109" max="15116" width="9.140625" style="119"/>
+    <col min="14862" max="15105" width="9.14453125" style="119"/>
+    <col min="15106" max="15106" width="2.15234375" style="119" customWidth="1"/>
+    <col min="15107" max="15107" width="9.14453125" style="119"/>
+    <col min="15108" max="15108" width="3.62890625" style="119" customWidth="1"/>
+    <col min="15109" max="15116" width="9.14453125" style="119"/>
     <col min="15117" max="15117" width="16.140625" style="119" customWidth="1"/>
-    <col min="15118" max="15361" width="9.140625" style="119"/>
-    <col min="15362" max="15362" width="2.140625" style="119" customWidth="1"/>
-    <col min="15363" max="15363" width="9.140625" style="119"/>
-    <col min="15364" max="15364" width="3.5703125" style="119" customWidth="1"/>
-    <col min="15365" max="15372" width="9.140625" style="119"/>
+    <col min="15118" max="15361" width="9.14453125" style="119"/>
+    <col min="15362" max="15362" width="2.15234375" style="119" customWidth="1"/>
+    <col min="15363" max="15363" width="9.14453125" style="119"/>
+    <col min="15364" max="15364" width="3.62890625" style="119" customWidth="1"/>
+    <col min="15365" max="15372" width="9.14453125" style="119"/>
     <col min="15373" max="15373" width="16.140625" style="119" customWidth="1"/>
-    <col min="15374" max="15617" width="9.140625" style="119"/>
-    <col min="15618" max="15618" width="2.140625" style="119" customWidth="1"/>
-    <col min="15619" max="15619" width="9.140625" style="119"/>
-    <col min="15620" max="15620" width="3.5703125" style="119" customWidth="1"/>
-    <col min="15621" max="15628" width="9.140625" style="119"/>
+    <col min="15374" max="15617" width="9.14453125" style="119"/>
+    <col min="15618" max="15618" width="2.15234375" style="119" customWidth="1"/>
+    <col min="15619" max="15619" width="9.14453125" style="119"/>
+    <col min="15620" max="15620" width="3.62890625" style="119" customWidth="1"/>
+    <col min="15621" max="15628" width="9.14453125" style="119"/>
     <col min="15629" max="15629" width="16.140625" style="119" customWidth="1"/>
-    <col min="15630" max="15873" width="9.140625" style="119"/>
-    <col min="15874" max="15874" width="2.140625" style="119" customWidth="1"/>
-    <col min="15875" max="15875" width="9.140625" style="119"/>
-    <col min="15876" max="15876" width="3.5703125" style="119" customWidth="1"/>
-    <col min="15877" max="15884" width="9.140625" style="119"/>
+    <col min="15630" max="15873" width="9.14453125" style="119"/>
+    <col min="15874" max="15874" width="2.15234375" style="119" customWidth="1"/>
+    <col min="15875" max="15875" width="9.14453125" style="119"/>
+    <col min="15876" max="15876" width="3.62890625" style="119" customWidth="1"/>
+    <col min="15877" max="15884" width="9.14453125" style="119"/>
     <col min="15885" max="15885" width="16.140625" style="119" customWidth="1"/>
-    <col min="15886" max="16129" width="9.140625" style="119"/>
-    <col min="16130" max="16130" width="2.140625" style="119" customWidth="1"/>
-    <col min="16131" max="16131" width="9.140625" style="119"/>
-    <col min="16132" max="16132" width="3.5703125" style="119" customWidth="1"/>
-    <col min="16133" max="16140" width="9.140625" style="119"/>
+    <col min="15886" max="16129" width="9.14453125" style="119"/>
+    <col min="16130" max="16130" width="2.15234375" style="119" customWidth="1"/>
+    <col min="16131" max="16131" width="9.14453125" style="119"/>
+    <col min="16132" max="16132" width="3.62890625" style="119" customWidth="1"/>
+    <col min="16133" max="16140" width="9.14453125" style="119"/>
     <col min="16141" max="16141" width="16.140625" style="119" customWidth="1"/>
-    <col min="16142" max="16384" width="9.140625" style="119"/>
+    <col min="16142" max="16384" width="9.14453125" style="119"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:13" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:13" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="192"/>
       <c r="C2" s="193"/>
       <c r="D2" s="193"/>
@@ -3943,7 +4024,7 @@
       <c r="L2" s="193"/>
       <c r="M2" s="187"/>
     </row>
-    <row r="3" spans="2:13" ht="30" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:13" ht="30.75" x14ac:dyDescent="0.35">
       <c r="B3" s="194"/>
       <c r="C3" s="120"/>
       <c r="D3" s="120"/>
@@ -3957,7 +4038,7 @@
       <c r="L3" s="120"/>
       <c r="M3" s="188"/>
     </row>
-    <row r="4" spans="2:13" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" ht="21.75" x14ac:dyDescent="0.25">
       <c r="B4" s="194"/>
       <c r="C4"/>
       <c r="D4" s="120"/>
@@ -3971,7 +4052,7 @@
       <c r="L4" s="120"/>
       <c r="M4" s="188"/>
     </row>
-    <row r="5" spans="2:13" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" ht="21.75" x14ac:dyDescent="0.25">
       <c r="B5" s="194"/>
       <c r="C5" s="120"/>
       <c r="D5" s="120"/>
@@ -3985,7 +4066,7 @@
       <c r="L5" s="120"/>
       <c r="M5" s="188"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B6" s="194"/>
       <c r="C6" s="120"/>
       <c r="D6" s="120"/>
@@ -3999,7 +4080,7 @@
       <c r="L6" s="120"/>
       <c r="M6" s="188"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B7" s="194"/>
       <c r="C7" s="120"/>
       <c r="D7" s="120"/>
@@ -4013,7 +4094,7 @@
       <c r="L7" s="120"/>
       <c r="M7" s="188"/>
     </row>
-    <row r="8" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="194"/>
       <c r="C8" s="333" t="s">
         <v>160</v>
@@ -4031,7 +4112,7 @@
       <c r="L8" s="124"/>
       <c r="M8" s="188"/>
     </row>
-    <row r="9" spans="2:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="194"/>
       <c r="C9" s="125"/>
       <c r="D9" s="125"/>
@@ -4045,7 +4126,7 @@
       <c r="L9" s="125"/>
       <c r="M9" s="188"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B10" s="194"/>
       <c r="C10" s="125" t="s">
         <v>154</v>
@@ -4061,7 +4142,7 @@
       <c r="L10" s="125"/>
       <c r="M10" s="188"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B11" s="194"/>
       <c r="C11" s="125"/>
       <c r="D11" s="125"/>
@@ -4075,7 +4156,7 @@
       <c r="L11" s="125"/>
       <c r="M11" s="188"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B12" s="194"/>
       <c r="C12" s="126" t="s">
         <v>155</v>
@@ -4091,7 +4172,7 @@
       <c r="L12" s="127"/>
       <c r="M12" s="188"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B13" s="194"/>
       <c r="C13" s="127"/>
       <c r="D13" s="127"/>
@@ -4105,7 +4186,7 @@
       <c r="L13" s="127"/>
       <c r="M13" s="188"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B14" s="194"/>
       <c r="C14" s="127"/>
       <c r="D14" s="127" t="s">
@@ -4121,7 +4202,7 @@
       <c r="L14" s="127"/>
       <c r="M14" s="188"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B15" s="194"/>
       <c r="C15" s="127"/>
       <c r="D15" s="127" t="s">
@@ -4137,7 +4218,7 @@
       <c r="L15" s="127"/>
       <c r="M15" s="188"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B16" s="194"/>
       <c r="C16" s="127"/>
       <c r="D16" s="127" t="s">
@@ -4153,7 +4234,7 @@
       <c r="L16" s="127"/>
       <c r="M16" s="188"/>
     </row>
-    <row r="17" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="194"/>
       <c r="C17" s="127"/>
       <c r="D17" s="334" t="s">
@@ -4169,7 +4250,7 @@
       <c r="L17" s="334"/>
       <c r="M17" s="188"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B18" s="194"/>
       <c r="C18" s="127"/>
       <c r="D18" s="127"/>
@@ -4183,7 +4264,7 @@
       <c r="L18" s="127"/>
       <c r="M18" s="188"/>
     </row>
-    <row r="19" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="194"/>
       <c r="C19" s="335" t="s">
         <v>229</v>
@@ -4199,7 +4280,7 @@
       <c r="L19" s="128"/>
       <c r="M19" s="188"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B20" s="189"/>
       <c r="C20" s="129"/>
       <c r="D20" s="125"/>
@@ -4213,7 +4294,7 @@
       <c r="L20" s="120"/>
       <c r="M20" s="188"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B21" s="189"/>
       <c r="C21" s="125" t="s">
         <v>162</v>
@@ -4229,7 +4310,7 @@
       <c r="L21" s="120"/>
       <c r="M21" s="188"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B22" s="189"/>
       <c r="C22" s="132" t="s">
         <v>161</v>
@@ -4245,7 +4326,7 @@
       <c r="L22" s="120"/>
       <c r="M22" s="188"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B23" s="189"/>
       <c r="C23" s="195" t="s">
         <v>163</v>
@@ -4261,7 +4342,7 @@
       <c r="L23" s="120"/>
       <c r="M23" s="188"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B24" s="189"/>
       <c r="C24" s="125" t="s">
         <v>158</v>
@@ -4277,7 +4358,7 @@
       <c r="L24" s="120"/>
       <c r="M24" s="188"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B25" s="189"/>
       <c r="C25" s="125" t="s">
         <v>159</v>
@@ -4293,7 +4374,7 @@
       <c r="L25" s="120"/>
       <c r="M25" s="188"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B26" s="189"/>
       <c r="C26" s="125"/>
       <c r="D26" s="125"/>
@@ -4307,7 +4388,7 @@
       <c r="L26" s="120"/>
       <c r="M26" s="188"/>
     </row>
-    <row r="27" spans="2:13" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B27" s="196"/>
       <c r="C27" s="190"/>
       <c r="D27" s="190"/>
@@ -4334,41 +4415,41 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AL161"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="M58" sqref="M58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="23"/>
-    <col min="2" max="2" width="7.7109375" style="23" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" style="28" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" style="23" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="23" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="23" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="23" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" style="23" customWidth="1"/>
-    <col min="9" max="9" width="5.42578125" style="23" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" style="23" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="23"/>
-    <col min="12" max="12" width="4.28515625" style="23" customWidth="1"/>
-    <col min="13" max="13" width="29.28515625" style="23" customWidth="1"/>
-    <col min="14" max="14" width="10.42578125" style="23" customWidth="1"/>
-    <col min="15" max="15" width="3.7109375" style="23" customWidth="1"/>
-    <col min="16" max="16" width="2.5703125" style="23" customWidth="1"/>
-    <col min="17" max="17" width="4" style="23" customWidth="1"/>
-    <col min="18" max="20" width="9.140625" style="23"/>
-    <col min="21" max="21" width="4.28515625" style="23" customWidth="1"/>
-    <col min="22" max="28" width="9.140625" style="23"/>
-    <col min="29" max="29" width="12.7109375" style="23" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="23"/>
+    <col min="1" max="1" width="9.14453125" style="23"/>
+    <col min="2" max="2" width="7.6640625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="21.65625" style="28" customWidth="1"/>
+    <col min="4" max="4" width="26.36328125" style="23" customWidth="1"/>
+    <col min="5" max="5" width="12.64453125" style="23" customWidth="1"/>
+    <col min="6" max="6" width="10.76171875" style="23" customWidth="1"/>
+    <col min="7" max="7" width="12.10546875" style="23" customWidth="1"/>
+    <col min="8" max="8" width="11.56640625" style="23" customWidth="1"/>
+    <col min="9" max="9" width="5.37890625" style="23" customWidth="1"/>
+    <col min="10" max="10" width="14.125" style="23" customWidth="1"/>
+    <col min="11" max="11" width="9.14453125" style="23"/>
+    <col min="12" max="12" width="4.3046875" style="23" customWidth="1"/>
+    <col min="13" max="13" width="29.32421875" style="23" customWidth="1"/>
+    <col min="14" max="14" width="10.35546875" style="23" customWidth="1"/>
+    <col min="15" max="15" width="3.765625" style="23" customWidth="1"/>
+    <col min="16" max="16" width="2.5546875" style="23" customWidth="1"/>
+    <col min="17" max="17" width="4.03515625" style="23" customWidth="1"/>
+    <col min="18" max="20" width="9.14453125" style="23"/>
+    <col min="21" max="21" width="4.3046875" style="23" customWidth="1"/>
+    <col min="22" max="28" width="9.14453125" style="23"/>
+    <col min="29" max="29" width="12.64453125" style="23" customWidth="1"/>
+    <col min="30" max="16384" width="9.14453125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="139"/>
       <c r="C2" s="140"/>
       <c r="D2" s="141"/>
@@ -4385,7 +4466,7 @@
       <c r="T2" s="25"/>
       <c r="U2" s="25"/>
     </row>
-    <row r="3" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="144" t="s">
         <v>164</v>
       </c>
@@ -4405,7 +4486,7 @@
       <c r="T3" s="25"/>
       <c r="U3" s="25"/>
     </row>
-    <row r="4" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="146"/>
       <c r="C4" s="133"/>
       <c r="D4" s="134"/>
@@ -4421,7 +4502,7 @@
       <c r="S4" s="34"/>
       <c r="T4" s="25"/>
     </row>
-    <row r="5" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="147"/>
       <c r="C5" s="29"/>
       <c r="D5" s="24"/>
@@ -4432,7 +4513,7 @@
       <c r="I5" s="2"/>
       <c r="J5" s="145"/>
     </row>
-    <row r="6" spans="1:38" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="198"/>
       <c r="C6" s="29"/>
       <c r="D6" s="24"/>
@@ -4443,7 +4524,7 @@
       <c r="I6" s="2"/>
       <c r="J6" s="145"/>
     </row>
-    <row r="7" spans="1:38" s="37" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:38" s="37" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="35"/>
       <c r="B7" s="199" t="s">
         <v>165</v>
@@ -4472,7 +4553,7 @@
       </c>
       <c r="K7" s="36"/>
     </row>
-    <row r="8" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="148">
         <f t="shared" ref="B8:B39" si="0">RANK(J8,$J$8:$J$147)</f>
         <v>1</v>
@@ -4532,7 +4613,7 @@
       <c r="AK8" s="37"/>
       <c r="AL8" s="37"/>
     </row>
-    <row r="9" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="148">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -4573,7 +4654,7 @@
       <c r="T9" s="339"/>
       <c r="U9" s="183"/>
     </row>
-    <row r="10" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="148">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4616,7 +4697,7 @@
       <c r="T10" s="136"/>
       <c r="U10" s="173"/>
     </row>
-    <row r="11" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="148">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -4657,7 +4738,7 @@
       <c r="T11" s="136"/>
       <c r="U11" s="173"/>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B12" s="148">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -4700,7 +4781,7 @@
       <c r="T12" s="40"/>
       <c r="U12" s="173"/>
     </row>
-    <row r="13" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="148">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4745,7 +4826,7 @@
       <c r="T13" s="40"/>
       <c r="U13" s="173"/>
     </row>
-    <row r="14" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="148">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -4790,7 +4871,7 @@
       <c r="T14" s="40"/>
       <c r="U14" s="173"/>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B15" s="148">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -4835,7 +4916,7 @@
       <c r="T15" s="40"/>
       <c r="U15" s="173"/>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B16" s="148">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4876,7 +4957,7 @@
       <c r="T16" s="40"/>
       <c r="U16" s="173"/>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B17" s="148">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -4919,7 +5000,7 @@
       <c r="T17" s="40"/>
       <c r="U17" s="173"/>
     </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B18" s="148">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -4964,7 +5045,7 @@
       <c r="T18" s="40"/>
       <c r="U18" s="173"/>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B19" s="148">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -5009,7 +5090,7 @@
       <c r="T19" s="40"/>
       <c r="U19" s="173"/>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B20" s="148">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -5054,7 +5135,7 @@
       <c r="T20" s="40"/>
       <c r="U20" s="173"/>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B21" s="148">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -5095,7 +5176,7 @@
       <c r="T21" s="40"/>
       <c r="U21" s="173"/>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B22" s="148">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -5138,7 +5219,7 @@
       <c r="T22" s="40"/>
       <c r="U22" s="173"/>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B23" s="148">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -5183,7 +5264,7 @@
       <c r="T23" s="39"/>
       <c r="U23" s="173"/>
     </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B24" s="148">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -5228,7 +5309,7 @@
       <c r="T24" s="39"/>
       <c r="U24" s="173"/>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B25" s="148">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -5273,7 +5354,7 @@
       <c r="T25" s="39"/>
       <c r="U25" s="173"/>
     </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B26" s="148">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -5314,7 +5395,7 @@
       <c r="T26" s="39"/>
       <c r="U26" s="173"/>
     </row>
-    <row r="27" spans="2:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="148">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -5357,7 +5438,7 @@
       <c r="T27" s="40"/>
       <c r="U27" s="173"/>
     </row>
-    <row r="28" spans="2:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="148">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -5402,7 +5483,7 @@
       <c r="T28" s="40"/>
       <c r="U28" s="173"/>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B29" s="148">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -5447,7 +5528,7 @@
       <c r="T29" s="40"/>
       <c r="U29" s="173"/>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B30" s="148">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -5492,7 +5573,7 @@
       <c r="T30" s="40"/>
       <c r="U30" s="173"/>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B31" s="148">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -5533,7 +5614,7 @@
       <c r="T31" s="40"/>
       <c r="U31" s="173"/>
     </row>
-    <row r="32" spans="2:21" ht="18" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:21" ht="18" x14ac:dyDescent="0.15">
       <c r="B32" s="148">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -5576,7 +5657,7 @@
       <c r="T32" s="40"/>
       <c r="U32" s="173"/>
     </row>
-    <row r="33" spans="2:29" ht="18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" ht="18" x14ac:dyDescent="0.15">
       <c r="B33" s="148">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -5617,7 +5698,7 @@
       <c r="T33" s="40"/>
       <c r="U33" s="173"/>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.15">
       <c r="B34" s="148">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -5660,7 +5741,7 @@
       <c r="T34" s="40"/>
       <c r="U34" s="173"/>
     </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:29" x14ac:dyDescent="0.15">
       <c r="B35" s="148">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -5703,7 +5784,7 @@
       <c r="T35" s="40"/>
       <c r="U35" s="173"/>
     </row>
-    <row r="36" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:29" x14ac:dyDescent="0.15">
       <c r="B36" s="148">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -5746,7 +5827,7 @@
       <c r="T36" s="40"/>
       <c r="U36" s="173"/>
     </row>
-    <row r="37" spans="2:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="148">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -5790,7 +5871,7 @@
       <c r="U37" s="173"/>
       <c r="V37" s="39"/>
     </row>
-    <row r="38" spans="2:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="148">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -5833,7 +5914,7 @@
       <c r="T38" s="40"/>
       <c r="U38" s="173"/>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.15">
       <c r="B39" s="148">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -5876,7 +5957,7 @@
       <c r="T39" s="40"/>
       <c r="U39" s="173"/>
     </row>
-    <row r="40" spans="2:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="148">
         <f t="shared" ref="B40:B71" si="1">RANK(J40,$J$8:$J$147)</f>
         <v>33</v>
@@ -5919,7 +6000,7 @@
       <c r="T40" s="39"/>
       <c r="U40" s="173"/>
     </row>
-    <row r="41" spans="2:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="148">
         <f t="shared" si="1"/>
         <v>34</v>
@@ -5962,7 +6043,7 @@
       <c r="T41" s="39"/>
       <c r="U41" s="173"/>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.15">
       <c r="B42" s="148">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -6005,7 +6086,7 @@
       <c r="T42" s="39"/>
       <c r="U42" s="173"/>
     </row>
-    <row r="43" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:29" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B43" s="148">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -6046,7 +6127,7 @@
       <c r="T43" s="185"/>
       <c r="U43" s="186"/>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.15">
       <c r="B44" s="148">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -6080,7 +6161,7 @@
       <c r="U44" s="39"/>
       <c r="V44" s="39"/>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.15">
       <c r="B45" s="148">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -6122,7 +6203,7 @@
       <c r="U45" s="39"/>
       <c r="V45" s="39"/>
     </row>
-    <row r="46" spans="2:29" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:29" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B46" s="148">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -6164,7 +6245,7 @@
       <c r="U46" s="39"/>
       <c r="V46" s="39"/>
     </row>
-    <row r="47" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="148">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -6215,7 +6296,7 @@
       <c r="AB47" s="170"/>
       <c r="AC47" s="171"/>
     </row>
-    <row r="48" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="148">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -6264,7 +6345,7 @@
       <c r="AB48" s="39"/>
       <c r="AC48" s="173"/>
     </row>
-    <row r="49" spans="2:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B49" s="148">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -6317,7 +6398,7 @@
       <c r="AB49" s="39"/>
       <c r="AC49" s="173"/>
     </row>
-    <row r="50" spans="2:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="148">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -6370,7 +6451,7 @@
       <c r="AB50" s="39"/>
       <c r="AC50" s="173"/>
     </row>
-    <row r="51" spans="2:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B51" s="148">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -6423,7 +6504,7 @@
       <c r="AB51" s="336"/>
       <c r="AC51" s="337"/>
     </row>
-    <row r="52" spans="2:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B52" s="148">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -6472,7 +6553,7 @@
       <c r="AB52" s="336"/>
       <c r="AC52" s="337"/>
     </row>
-    <row r="53" spans="2:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B53" s="148">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -6521,7 +6602,7 @@
       <c r="AB53" s="336"/>
       <c r="AC53" s="337"/>
     </row>
-    <row r="54" spans="2:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B54" s="148">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -6571,7 +6652,7 @@
       <c r="AC54" s="337"/>
       <c r="AD54" s="39"/>
     </row>
-    <row r="55" spans="2:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B55" s="148">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -6624,7 +6705,7 @@
       <c r="AB55" s="336"/>
       <c r="AC55" s="337"/>
     </row>
-    <row r="56" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B56" s="148">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -6673,7 +6754,7 @@
       <c r="AB56" s="336"/>
       <c r="AC56" s="337"/>
     </row>
-    <row r="57" spans="2:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:30" ht="15" x14ac:dyDescent="0.2">
       <c r="B57" s="148">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -6722,7 +6803,7 @@
       <c r="AB57" s="336"/>
       <c r="AC57" s="337"/>
     </row>
-    <row r="58" spans="2:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:30" ht="15" x14ac:dyDescent="0.15">
       <c r="B58" s="148">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -6773,7 +6854,7 @@
       <c r="AB58" s="39"/>
       <c r="AC58" s="173"/>
     </row>
-    <row r="59" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B59" s="148">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -6822,7 +6903,7 @@
       <c r="AB59" s="178"/>
       <c r="AC59" s="179"/>
     </row>
-    <row r="60" spans="2:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B60" s="148">
         <f t="shared" si="1"/>
         <v>53</v>
@@ -6864,7 +6945,7 @@
       <c r="U60" s="39"/>
       <c r="V60" s="39"/>
     </row>
-    <row r="61" spans="2:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B61" s="148">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -6906,7 +6987,7 @@
       <c r="U61" s="39"/>
       <c r="V61" s="39"/>
     </row>
-    <row r="62" spans="2:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B62" s="148">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -6948,7 +7029,7 @@
       <c r="U62" s="39"/>
       <c r="V62" s="39"/>
     </row>
-    <row r="63" spans="2:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B63" s="148">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -6990,7 +7071,7 @@
       <c r="U63" s="39"/>
       <c r="V63" s="39"/>
     </row>
-    <row r="64" spans="2:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B64" s="148">
         <f t="shared" si="1"/>
         <v>57</v>
@@ -7032,7 +7113,7 @@
       <c r="U64" s="39"/>
       <c r="V64" s="39"/>
     </row>
-    <row r="65" spans="2:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B65" s="148">
         <f t="shared" si="1"/>
         <v>58</v>
@@ -7074,7 +7155,7 @@
       <c r="U65" s="39"/>
       <c r="V65" s="39"/>
     </row>
-    <row r="66" spans="2:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B66" s="148">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -7116,7 +7197,7 @@
       <c r="U66" s="39"/>
       <c r="V66" s="39"/>
     </row>
-    <row r="67" spans="2:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B67" s="148">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -7158,7 +7239,7 @@
       <c r="U67" s="39"/>
       <c r="V67" s="39"/>
     </row>
-    <row r="68" spans="2:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B68" s="148">
         <f t="shared" si="1"/>
         <v>61</v>
@@ -7200,7 +7281,7 @@
       <c r="U68" s="39"/>
       <c r="V68" s="39"/>
     </row>
-    <row r="69" spans="2:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B69" s="148">
         <f t="shared" si="1"/>
         <v>62</v>
@@ -7242,7 +7323,7 @@
       <c r="U69" s="39"/>
       <c r="V69" s="39"/>
     </row>
-    <row r="70" spans="2:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B70" s="148">
         <f t="shared" si="1"/>
         <v>63</v>
@@ -7284,7 +7365,7 @@
       <c r="U70" s="39"/>
       <c r="V70" s="39"/>
     </row>
-    <row r="71" spans="2:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B71" s="148">
         <f t="shared" si="1"/>
         <v>64</v>
@@ -7326,7 +7407,7 @@
       <c r="U71" s="39"/>
       <c r="V71" s="39"/>
     </row>
-    <row r="72" spans="2:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B72" s="148">
         <f t="shared" ref="B72:B103" si="2">RANK(J72,$J$8:$J$147)</f>
         <v>65</v>
@@ -7368,7 +7449,7 @@
       <c r="U72" s="39"/>
       <c r="V72" s="39"/>
     </row>
-    <row r="73" spans="2:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B73" s="148">
         <f t="shared" si="2"/>
         <v>66</v>
@@ -7410,7 +7491,7 @@
       <c r="U73" s="39"/>
       <c r="V73" s="39"/>
     </row>
-    <row r="74" spans="2:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B74" s="148">
         <f t="shared" si="2"/>
         <v>67</v>
@@ -7452,7 +7533,7 @@
       <c r="U74" s="39"/>
       <c r="V74" s="39"/>
     </row>
-    <row r="75" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B75" s="148">
         <f t="shared" si="2"/>
         <v>68</v>
@@ -7494,7 +7575,7 @@
       <c r="U75" s="39"/>
       <c r="V75" s="39"/>
     </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B76" s="148">
         <f t="shared" si="2"/>
         <v>69</v>
@@ -7527,7 +7608,7 @@
       <c r="L76" s="38"/>
       <c r="T76" s="38"/>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B77" s="148">
         <f t="shared" si="2"/>
         <v>70</v>
@@ -7558,7 +7639,7 @@
       </c>
       <c r="K77" s="38"/>
     </row>
-    <row r="78" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B78" s="148">
         <f t="shared" si="2"/>
         <v>71</v>
@@ -7589,7 +7670,7 @@
       </c>
       <c r="K78" s="38"/>
     </row>
-    <row r="79" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B79" s="148">
         <f t="shared" si="2"/>
         <v>72</v>
@@ -7620,7 +7701,7 @@
       </c>
       <c r="K79" s="38"/>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B80" s="148">
         <f t="shared" si="2"/>
         <v>73</v>
@@ -7651,7 +7732,7 @@
       </c>
       <c r="K80" s="38"/>
     </row>
-    <row r="81" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B81" s="148">
         <f t="shared" si="2"/>
         <v>74</v>
@@ -7682,7 +7763,7 @@
       </c>
       <c r="K81" s="38"/>
     </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B82" s="148">
         <f t="shared" si="2"/>
         <v>75</v>
@@ -7713,7 +7794,7 @@
       </c>
       <c r="K82" s="38"/>
     </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B83" s="148">
         <f t="shared" si="2"/>
         <v>76</v>
@@ -7744,7 +7825,7 @@
       </c>
       <c r="K83" s="38"/>
     </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B84" s="148">
         <f t="shared" si="2"/>
         <v>77</v>
@@ -7775,7 +7856,7 @@
       </c>
       <c r="K84" s="38"/>
     </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B85" s="148">
         <f t="shared" si="2"/>
         <v>78</v>
@@ -7806,7 +7887,7 @@
       </c>
       <c r="K85" s="38"/>
     </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B86" s="148">
         <f t="shared" si="2"/>
         <v>79</v>
@@ -7837,7 +7918,7 @@
       </c>
       <c r="K86" s="38"/>
     </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B87" s="148">
         <f t="shared" si="2"/>
         <v>80</v>
@@ -7868,7 +7949,7 @@
       </c>
       <c r="K87" s="38"/>
     </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B88" s="148">
         <f t="shared" si="2"/>
         <v>81</v>
@@ -7899,7 +7980,7 @@
       </c>
       <c r="K88" s="38"/>
     </row>
-    <row r="89" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B89" s="148">
         <f t="shared" si="2"/>
         <v>82</v>
@@ -7930,7 +8011,7 @@
       </c>
       <c r="K89" s="38"/>
     </row>
-    <row r="90" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B90" s="148">
         <f t="shared" si="2"/>
         <v>83</v>
@@ -7961,7 +8042,7 @@
       </c>
       <c r="K90" s="38"/>
     </row>
-    <row r="91" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B91" s="148">
         <f t="shared" si="2"/>
         <v>84</v>
@@ -7993,7 +8074,7 @@
       <c r="K91" s="38"/>
       <c r="L91" s="38"/>
     </row>
-    <row r="92" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B92" s="148">
         <f t="shared" si="2"/>
         <v>85</v>
@@ -8025,7 +8106,7 @@
       <c r="K92" s="38"/>
       <c r="L92" s="38"/>
     </row>
-    <row r="93" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B93" s="148">
         <f t="shared" si="2"/>
         <v>86</v>
@@ -8057,7 +8138,7 @@
       <c r="K93" s="38"/>
       <c r="L93" s="38"/>
     </row>
-    <row r="94" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B94" s="148">
         <f t="shared" si="2"/>
         <v>87</v>
@@ -8089,7 +8170,7 @@
       <c r="K94" s="38"/>
       <c r="L94" s="38"/>
     </row>
-    <row r="95" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B95" s="148">
         <f t="shared" si="2"/>
         <v>88</v>
@@ -8122,7 +8203,7 @@
       <c r="L95" s="38"/>
       <c r="M95" s="52"/>
     </row>
-    <row r="96" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B96" s="148">
         <f t="shared" si="2"/>
         <v>89</v>
@@ -8155,7 +8236,7 @@
       <c r="L96" s="38"/>
       <c r="M96" s="52"/>
     </row>
-    <row r="97" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B97" s="148">
         <f t="shared" si="2"/>
         <v>90</v>
@@ -8188,7 +8269,7 @@
       <c r="L97" s="38"/>
       <c r="M97" s="52"/>
     </row>
-    <row r="98" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B98" s="148">
         <f t="shared" si="2"/>
         <v>91</v>
@@ -8221,7 +8302,7 @@
       <c r="L98" s="38"/>
       <c r="M98" s="52"/>
     </row>
-    <row r="99" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B99" s="148">
         <f t="shared" si="2"/>
         <v>92</v>
@@ -8254,7 +8335,7 @@
       <c r="L99" s="38"/>
       <c r="M99" s="52"/>
     </row>
-    <row r="100" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B100" s="148">
         <f t="shared" si="2"/>
         <v>93</v>
@@ -8287,7 +8368,7 @@
       <c r="L100" s="38"/>
       <c r="M100" s="52"/>
     </row>
-    <row r="101" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B101" s="148">
         <f t="shared" si="2"/>
         <v>94</v>
@@ -8320,7 +8401,7 @@
       <c r="L101" s="38"/>
       <c r="M101" s="52"/>
     </row>
-    <row r="102" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B102" s="148">
         <f t="shared" si="2"/>
         <v>95</v>
@@ -8353,7 +8434,7 @@
       <c r="L102" s="38"/>
       <c r="M102" s="52"/>
     </row>
-    <row r="103" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B103" s="148">
         <f t="shared" si="2"/>
         <v>96</v>
@@ -8386,7 +8467,7 @@
       <c r="L103" s="38"/>
       <c r="M103" s="52"/>
     </row>
-    <row r="104" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B104" s="148">
         <f t="shared" ref="B104:B135" si="3">RANK(J104,$J$8:$J$147)</f>
         <v>97</v>
@@ -8419,7 +8500,7 @@
       <c r="L104" s="38"/>
       <c r="M104" s="52"/>
     </row>
-    <row r="105" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B105" s="148">
         <f t="shared" si="3"/>
         <v>98</v>
@@ -8452,7 +8533,7 @@
       <c r="L105" s="38"/>
       <c r="M105" s="52"/>
     </row>
-    <row r="106" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B106" s="148">
         <f t="shared" si="3"/>
         <v>99</v>
@@ -8485,7 +8566,7 @@
       <c r="L106" s="38"/>
       <c r="M106" s="52"/>
     </row>
-    <row r="107" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B107" s="148">
         <f t="shared" si="3"/>
         <v>100</v>
@@ -8518,7 +8599,7 @@
       <c r="L107" s="38"/>
       <c r="M107" s="52"/>
     </row>
-    <row r="108" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B108" s="148">
         <f t="shared" si="3"/>
         <v>101</v>
@@ -8551,7 +8632,7 @@
       <c r="L108" s="38"/>
       <c r="M108" s="52"/>
     </row>
-    <row r="109" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B109" s="148">
         <f t="shared" si="3"/>
         <v>102</v>
@@ -8584,7 +8665,7 @@
       <c r="L109" s="38"/>
       <c r="M109" s="52"/>
     </row>
-    <row r="110" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B110" s="148">
         <f t="shared" si="3"/>
         <v>103</v>
@@ -8617,7 +8698,7 @@
       <c r="L110" s="38"/>
       <c r="M110" s="52"/>
     </row>
-    <row r="111" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B111" s="148">
         <f t="shared" si="3"/>
         <v>104</v>
@@ -8650,7 +8731,7 @@
       <c r="L111" s="38"/>
       <c r="M111" s="52"/>
     </row>
-    <row r="112" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B112" s="148">
         <f t="shared" si="3"/>
         <v>105</v>
@@ -8683,7 +8764,7 @@
       <c r="L112" s="38"/>
       <c r="M112" s="52"/>
     </row>
-    <row r="113" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B113" s="148">
         <f t="shared" si="3"/>
         <v>106</v>
@@ -8716,7 +8797,7 @@
       <c r="L113" s="38"/>
       <c r="M113" s="52"/>
     </row>
-    <row r="114" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B114" s="148">
         <f t="shared" si="3"/>
         <v>107</v>
@@ -8749,7 +8830,7 @@
       <c r="L114" s="38"/>
       <c r="M114" s="52"/>
     </row>
-    <row r="115" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B115" s="148">
         <f t="shared" si="3"/>
         <v>108</v>
@@ -8782,7 +8863,7 @@
       <c r="L115" s="38"/>
       <c r="M115" s="52"/>
     </row>
-    <row r="116" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B116" s="148">
         <f t="shared" si="3"/>
         <v>109</v>
@@ -8815,7 +8896,7 @@
       <c r="L116" s="38"/>
       <c r="M116" s="52"/>
     </row>
-    <row r="117" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B117" s="148">
         <f t="shared" si="3"/>
         <v>110</v>
@@ -8848,7 +8929,7 @@
       <c r="L117" s="38"/>
       <c r="M117" s="52"/>
     </row>
-    <row r="118" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B118" s="148">
         <f t="shared" si="3"/>
         <v>111</v>
@@ -8881,7 +8962,7 @@
       <c r="L118" s="38"/>
       <c r="M118" s="52"/>
     </row>
-    <row r="119" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B119" s="148">
         <f t="shared" si="3"/>
         <v>112</v>
@@ -8914,7 +8995,7 @@
       <c r="L119" s="38"/>
       <c r="M119" s="52"/>
     </row>
-    <row r="120" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B120" s="148">
         <f t="shared" si="3"/>
         <v>113</v>
@@ -8947,7 +9028,7 @@
       <c r="L120" s="38"/>
       <c r="M120" s="52"/>
     </row>
-    <row r="121" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B121" s="148">
         <f t="shared" si="3"/>
         <v>114</v>
@@ -8980,7 +9061,7 @@
       <c r="L121" s="38"/>
       <c r="M121" s="52"/>
     </row>
-    <row r="122" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B122" s="148">
         <f t="shared" si="3"/>
         <v>115</v>
@@ -9013,7 +9094,7 @@
       <c r="L122" s="38"/>
       <c r="M122" s="52"/>
     </row>
-    <row r="123" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B123" s="148">
         <f t="shared" si="3"/>
         <v>116</v>
@@ -9046,7 +9127,7 @@
       <c r="L123" s="38"/>
       <c r="M123" s="52"/>
     </row>
-    <row r="124" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B124" s="148">
         <f t="shared" si="3"/>
         <v>117</v>
@@ -9079,7 +9160,7 @@
       <c r="L124" s="38"/>
       <c r="M124" s="52"/>
     </row>
-    <row r="125" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B125" s="148">
         <f t="shared" si="3"/>
         <v>118</v>
@@ -9112,7 +9193,7 @@
       <c r="L125" s="38"/>
       <c r="M125" s="52"/>
     </row>
-    <row r="126" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B126" s="148">
         <f t="shared" si="3"/>
         <v>119</v>
@@ -9145,7 +9226,7 @@
       <c r="L126" s="38"/>
       <c r="M126" s="52"/>
     </row>
-    <row r="127" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B127" s="148">
         <f t="shared" si="3"/>
         <v>120</v>
@@ -9178,7 +9259,7 @@
       <c r="L127" s="38"/>
       <c r="M127" s="52"/>
     </row>
-    <row r="128" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B128" s="148">
         <f t="shared" si="3"/>
         <v>121</v>
@@ -9211,7 +9292,7 @@
       <c r="L128" s="38"/>
       <c r="M128" s="52"/>
     </row>
-    <row r="129" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B129" s="148">
         <f t="shared" si="3"/>
         <v>122</v>
@@ -9244,7 +9325,7 @@
       <c r="L129" s="38"/>
       <c r="M129" s="52"/>
     </row>
-    <row r="130" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B130" s="148">
         <f t="shared" si="3"/>
         <v>123</v>
@@ -9277,7 +9358,7 @@
       <c r="L130" s="38"/>
       <c r="M130" s="52"/>
     </row>
-    <row r="131" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B131" s="148">
         <f t="shared" si="3"/>
         <v>124</v>
@@ -9310,7 +9391,7 @@
       <c r="L131" s="38"/>
       <c r="M131" s="52"/>
     </row>
-    <row r="132" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B132" s="148">
         <f t="shared" si="3"/>
         <v>125</v>
@@ -9343,7 +9424,7 @@
       <c r="L132" s="38"/>
       <c r="M132" s="52"/>
     </row>
-    <row r="133" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B133" s="148">
         <f t="shared" si="3"/>
         <v>126</v>
@@ -9376,7 +9457,7 @@
       <c r="L133" s="38"/>
       <c r="M133" s="52"/>
     </row>
-    <row r="134" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B134" s="148">
         <f t="shared" si="3"/>
         <v>127</v>
@@ -9409,7 +9490,7 @@
       <c r="L134" s="38"/>
       <c r="M134" s="52"/>
     </row>
-    <row r="135" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B135" s="148">
         <f t="shared" si="3"/>
         <v>128</v>
@@ -9442,7 +9523,7 @@
       <c r="L135" s="38"/>
       <c r="M135" s="52"/>
     </row>
-    <row r="136" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B136" s="148">
         <f t="shared" ref="B136:B147" si="4">RANK(J136,$J$8:$J$147)</f>
         <v>129</v>
@@ -9475,7 +9556,7 @@
       <c r="L136" s="38"/>
       <c r="M136" s="52"/>
     </row>
-    <row r="137" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B137" s="148">
         <f t="shared" si="4"/>
         <v>130</v>
@@ -9508,7 +9589,7 @@
       <c r="L137" s="38"/>
       <c r="M137" s="52"/>
     </row>
-    <row r="138" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B138" s="148">
         <f t="shared" si="4"/>
         <v>131</v>
@@ -9541,7 +9622,7 @@
       <c r="L138" s="38"/>
       <c r="M138" s="52"/>
     </row>
-    <row r="139" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B139" s="148">
         <f t="shared" si="4"/>
         <v>132</v>
@@ -9574,7 +9655,7 @@
       <c r="L139" s="38"/>
       <c r="M139" s="52"/>
     </row>
-    <row r="140" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B140" s="148">
         <f t="shared" si="4"/>
         <v>133</v>
@@ -9607,7 +9688,7 @@
       <c r="L140" s="38"/>
       <c r="M140" s="52"/>
     </row>
-    <row r="141" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B141" s="148">
         <f t="shared" si="4"/>
         <v>134</v>
@@ -9640,7 +9721,7 @@
       <c r="L141" s="38"/>
       <c r="M141" s="52"/>
     </row>
-    <row r="142" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B142" s="148">
         <f t="shared" si="4"/>
         <v>135</v>
@@ -9673,7 +9754,7 @@
       <c r="L142" s="38"/>
       <c r="M142" s="52"/>
     </row>
-    <row r="143" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B143" s="148">
         <f t="shared" si="4"/>
         <v>136</v>
@@ -9706,7 +9787,7 @@
       <c r="L143" s="38"/>
       <c r="M143" s="52"/>
     </row>
-    <row r="144" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B144" s="148">
         <f t="shared" si="4"/>
         <v>137</v>
@@ -9739,7 +9820,7 @@
       <c r="L144" s="38"/>
       <c r="M144" s="52"/>
     </row>
-    <row r="145" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:37" x14ac:dyDescent="0.15">
       <c r="B145" s="148">
         <f t="shared" si="4"/>
         <v>138</v>
@@ -9772,7 +9853,7 @@
       <c r="L145" s="38"/>
       <c r="M145" s="52"/>
     </row>
-    <row r="146" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:37" x14ac:dyDescent="0.15">
       <c r="B146" s="148">
         <f t="shared" si="4"/>
         <v>139</v>
@@ -9805,7 +9886,7 @@
       <c r="L146" s="38"/>
       <c r="M146" s="52"/>
     </row>
-    <row r="147" spans="2:37" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:37" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B147" s="157">
         <f t="shared" si="4"/>
         <v>140</v>
@@ -9838,12 +9919,12 @@
       <c r="L147" s="38"/>
       <c r="M147" s="52"/>
     </row>
-    <row r="148" spans="2:37" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:37" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K148" s="53"/>
       <c r="L148" s="38"/>
       <c r="M148" s="52"/>
     </row>
-    <row r="149" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:37" x14ac:dyDescent="0.15">
       <c r="B149" s="54"/>
       <c r="C149" s="21"/>
       <c r="E149" s="54"/>
@@ -9855,13 +9936,13 @@
       <c r="L149" s="38"/>
       <c r="M149" s="52"/>
     </row>
-    <row r="150" spans="2:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:37" x14ac:dyDescent="0.15">
       <c r="E150" s="27"/>
       <c r="F150" s="27"/>
       <c r="H150" s="27"/>
       <c r="L150" s="38"/>
     </row>
-    <row r="151" spans="2:37" s="26" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:37" s="26" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C151" s="30"/>
       <c r="E151" s="55"/>
       <c r="F151" s="55"/>
@@ -9893,35 +9974,35 @@
       <c r="AJ151" s="23"/>
       <c r="AK151" s="23"/>
     </row>
-    <row r="152" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:37" x14ac:dyDescent="0.15">
       <c r="C152" s="31"/>
       <c r="E152" s="56"/>
       <c r="F152" s="56"/>
       <c r="H152" s="56"/>
       <c r="L152" s="38"/>
     </row>
-    <row r="153" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:37" x14ac:dyDescent="0.15">
       <c r="C153" s="31"/>
       <c r="E153" s="56"/>
       <c r="F153" s="56"/>
       <c r="H153" s="56"/>
       <c r="L153" s="38"/>
     </row>
-    <row r="154" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:37" x14ac:dyDescent="0.15">
       <c r="C154" s="31"/>
       <c r="E154" s="56"/>
       <c r="F154" s="56"/>
       <c r="H154" s="56"/>
       <c r="L154" s="38"/>
     </row>
-    <row r="155" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:37" x14ac:dyDescent="0.15">
       <c r="C155" s="31"/>
       <c r="E155" s="56"/>
       <c r="F155" s="56"/>
       <c r="H155" s="56"/>
       <c r="L155" s="38"/>
     </row>
-    <row r="156" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:37" x14ac:dyDescent="0.15">
       <c r="C156" s="31"/>
       <c r="E156" s="56"/>
       <c r="F156" s="56"/>
@@ -9932,25 +10013,25 @@
       <c r="S156" s="26"/>
       <c r="T156" s="26"/>
     </row>
-    <row r="157" spans="2:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:37" x14ac:dyDescent="0.15">
       <c r="C157" s="31"/>
       <c r="E157" s="56"/>
       <c r="F157" s="56"/>
       <c r="H157" s="56"/>
       <c r="L157" s="53"/>
     </row>
-    <row r="159" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:37" x14ac:dyDescent="0.15">
       <c r="O159" s="26"/>
       <c r="P159" s="26"/>
     </row>
-    <row r="160" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:37" x14ac:dyDescent="0.15">
       <c r="L160" s="26"/>
     </row>
-    <row r="161" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="161" spans="21:21" x14ac:dyDescent="0.15">
       <c r="U161" s="26"/>
     </row>
   </sheetData>
-  <autoFilter ref="B7:J7"/>
+  <autoFilter ref="B7:J7" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="4">
     <mergeCell ref="N55:AC57"/>
     <mergeCell ref="M8:T9"/>
@@ -9958,7 +10039,7 @@
     <mergeCell ref="N51:AC54"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="M58" r:id="rId1"/>
+    <hyperlink ref="M58" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -9967,35 +10048,35 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AP158"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="L58" sqref="L58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="7.7109375" customWidth="1"/>
-    <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="79" customWidth="1"/>
-    <col min="8" max="8" width="5.42578125" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" customWidth="1"/>
-    <col min="11" max="11" width="4.28515625" style="23" customWidth="1"/>
-    <col min="12" max="12" width="28" style="23" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" style="23" customWidth="1"/>
-    <col min="14" max="14" width="3.7109375" style="23" customWidth="1"/>
-    <col min="15" max="15" width="2.5703125" style="23" customWidth="1"/>
-    <col min="16" max="16" width="4" style="23" customWidth="1"/>
-    <col min="17" max="19" width="9.140625" style="23"/>
-    <col min="20" max="20" width="4.28515625" style="23" customWidth="1"/>
-    <col min="21" max="33" width="9.140625" style="23"/>
+    <col min="2" max="2" width="7.6640625" customWidth="1"/>
+    <col min="3" max="3" width="25.9609375" customWidth="1"/>
+    <col min="4" max="4" width="11.97265625" customWidth="1"/>
+    <col min="5" max="6" width="10.76171875" customWidth="1"/>
+    <col min="7" max="7" width="12.10546875" style="79" customWidth="1"/>
+    <col min="8" max="8" width="5.37890625" customWidth="1"/>
+    <col min="9" max="9" width="14.125" customWidth="1"/>
+    <col min="11" max="11" width="4.3046875" style="23" customWidth="1"/>
+    <col min="12" max="12" width="27.98046875" style="23" customWidth="1"/>
+    <col min="13" max="13" width="10.35546875" style="23" customWidth="1"/>
+    <col min="14" max="14" width="3.765625" style="23" customWidth="1"/>
+    <col min="15" max="15" width="2.5546875" style="23" customWidth="1"/>
+    <col min="16" max="16" width="4.03515625" style="23" customWidth="1"/>
+    <col min="17" max="19" width="9.14453125" style="23"/>
+    <col min="20" max="20" width="4.3046875" style="23" customWidth="1"/>
+    <col min="21" max="33" width="9.14453125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="139"/>
       <c r="C2" s="142"/>
       <c r="D2" s="214"/>
@@ -10011,7 +10092,7 @@
       <c r="S2" s="25"/>
       <c r="T2" s="25"/>
     </row>
-    <row r="3" spans="1:42" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:42" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="144" t="s">
         <v>204</v>
       </c>
@@ -10030,7 +10111,7 @@
       <c r="S3" s="25"/>
       <c r="T3" s="25"/>
     </row>
-    <row r="4" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="198"/>
       <c r="C4" s="2"/>
       <c r="D4" s="3"/>
@@ -10045,7 +10126,7 @@
       <c r="R4" s="34"/>
       <c r="S4" s="25"/>
     </row>
-    <row r="5" spans="1:42" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:42" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="216"/>
       <c r="C5" s="217"/>
       <c r="D5" s="218"/>
@@ -10055,7 +10136,7 @@
       <c r="H5" s="217"/>
       <c r="I5" s="220"/>
     </row>
-    <row r="6" spans="1:42" s="37" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:42" s="37" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="35"/>
       <c r="B6" s="199" t="s">
         <v>165</v>
@@ -10104,7 +10185,7 @@
       <c r="AF6" s="23"/>
       <c r="AG6" s="23"/>
     </row>
-    <row r="7" spans="1:42" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:42" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="221" t="s">
         <v>141</v>
       </c>
@@ -10149,7 +10230,7 @@
       <c r="AO7" s="7"/>
       <c r="AP7" s="7"/>
     </row>
-    <row r="8" spans="1:42" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:42" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="225"/>
       <c r="C8" s="226"/>
       <c r="D8" s="226"/>
@@ -10185,7 +10266,7 @@
       <c r="AF8" s="37"/>
       <c r="AG8" s="37"/>
     </row>
-    <row r="9" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="204">
         <v>1</v>
       </c>
@@ -10222,7 +10303,7 @@
       <c r="S9" s="339"/>
       <c r="T9" s="183"/>
     </row>
-    <row r="10" spans="1:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="148">
         <v>2</v>
       </c>
@@ -10261,7 +10342,7 @@
       <c r="S10" s="136"/>
       <c r="T10" s="173"/>
     </row>
-    <row r="11" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="148">
         <v>3</v>
       </c>
@@ -10298,7 +10379,7 @@
       <c r="S11" s="136"/>
       <c r="T11" s="173"/>
     </row>
-    <row r="12" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="148">
         <v>6</v>
       </c>
@@ -10337,7 +10418,7 @@
       <c r="S12" s="40"/>
       <c r="T12" s="173"/>
     </row>
-    <row r="13" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="148">
         <v>7</v>
       </c>
@@ -10378,7 +10459,7 @@
       <c r="S13" s="40"/>
       <c r="T13" s="173"/>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.2">
       <c r="B14" s="148">
         <v>10</v>
       </c>
@@ -10419,7 +10500,7 @@
       <c r="S14" s="40"/>
       <c r="T14" s="173"/>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.2">
       <c r="B15" s="148">
         <v>11</v>
       </c>
@@ -10460,7 +10541,7 @@
       <c r="S15" s="40"/>
       <c r="T15" s="173"/>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.2">
       <c r="B16" s="148">
         <v>14</v>
       </c>
@@ -10497,7 +10578,7 @@
       <c r="S16" s="40"/>
       <c r="T16" s="173"/>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B17" s="148">
         <v>17</v>
       </c>
@@ -10536,7 +10617,7 @@
       <c r="S17" s="40"/>
       <c r="T17" s="173"/>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B18" s="148">
         <v>19</v>
       </c>
@@ -10577,7 +10658,7 @@
       <c r="S18" s="40"/>
       <c r="T18" s="173"/>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B19" s="148">
         <v>21</v>
       </c>
@@ -10618,7 +10699,7 @@
       <c r="S19" s="40"/>
       <c r="T19" s="173"/>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B20" s="148">
         <v>23</v>
       </c>
@@ -10659,7 +10740,7 @@
       <c r="S20" s="40"/>
       <c r="T20" s="173"/>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B21" s="148">
         <v>26</v>
       </c>
@@ -10696,7 +10777,7 @@
       <c r="S21" s="40"/>
       <c r="T21" s="173"/>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B22" s="148">
         <v>27</v>
       </c>
@@ -10735,7 +10816,7 @@
       <c r="S22" s="40"/>
       <c r="T22" s="173"/>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B23" s="148">
         <v>29</v>
       </c>
@@ -10776,7 +10857,7 @@
       <c r="S23" s="39"/>
       <c r="T23" s="173"/>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B24" s="148">
         <v>35</v>
       </c>
@@ -10817,7 +10898,7 @@
       <c r="S24" s="39"/>
       <c r="T24" s="173"/>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B25" s="148">
         <v>45</v>
       </c>
@@ -10858,7 +10939,7 @@
       <c r="S25" s="39"/>
       <c r="T25" s="173"/>
     </row>
-    <row r="26" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="148">
         <v>57</v>
       </c>
@@ -10895,7 +10976,7 @@
       <c r="S26" s="39"/>
       <c r="T26" s="173"/>
     </row>
-    <row r="27" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="148">
         <v>65</v>
       </c>
@@ -10934,7 +11015,7 @@
       <c r="S27" s="40"/>
       <c r="T27" s="173"/>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B28" s="148">
         <v>75</v>
       </c>
@@ -10975,7 +11056,7 @@
       <c r="S28" s="40"/>
       <c r="T28" s="173"/>
     </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B29" s="148">
         <v>85</v>
       </c>
@@ -11016,7 +11097,7 @@
       <c r="S29" s="40"/>
       <c r="T29" s="173"/>
     </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B30" s="148">
         <v>91</v>
       </c>
@@ -11057,7 +11138,7 @@
       <c r="S30" s="40"/>
       <c r="T30" s="173"/>
     </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B31" s="148">
         <v>92</v>
       </c>
@@ -11094,7 +11175,7 @@
       <c r="S31" s="40"/>
       <c r="T31" s="173"/>
     </row>
-    <row r="32" spans="2:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:20" ht="18" x14ac:dyDescent="0.2">
       <c r="B32" s="148">
         <v>108</v>
       </c>
@@ -11133,7 +11214,7 @@
       <c r="S32" s="40"/>
       <c r="T32" s="173"/>
     </row>
-    <row r="33" spans="1:28" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:28" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="157">
         <v>130</v>
       </c>
@@ -11170,7 +11251,7 @@
       <c r="S33" s="40"/>
       <c r="T33" s="173"/>
     </row>
-    <row r="34" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="9"/>
       <c r="B34" s="221" t="s">
         <v>143</v>
@@ -11196,7 +11277,7 @@
       <c r="S34" s="40"/>
       <c r="T34" s="173"/>
     </row>
-    <row r="35" spans="1:28" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:28" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9"/>
       <c r="B35" s="225"/>
       <c r="C35" s="226"/>
@@ -11220,7 +11301,7 @@
       <c r="S35" s="40"/>
       <c r="T35" s="173"/>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B36" s="204">
         <v>4</v>
       </c>
@@ -11259,7 +11340,7 @@
       <c r="S36" s="40"/>
       <c r="T36" s="173"/>
     </row>
-    <row r="37" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="148">
         <v>5</v>
       </c>
@@ -11299,7 +11380,7 @@
       <c r="T37" s="173"/>
       <c r="U37" s="39"/>
     </row>
-    <row r="38" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="148">
         <v>8</v>
       </c>
@@ -11338,7 +11419,7 @@
       <c r="S38" s="40"/>
       <c r="T38" s="173"/>
     </row>
-    <row r="39" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="148">
         <v>9</v>
       </c>
@@ -11377,7 +11458,7 @@
       <c r="S39" s="40"/>
       <c r="T39" s="173"/>
     </row>
-    <row r="40" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="148">
         <v>16</v>
       </c>
@@ -11416,7 +11497,7 @@
       <c r="S40" s="39"/>
       <c r="T40" s="173"/>
     </row>
-    <row r="41" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="148">
         <v>20</v>
       </c>
@@ -11455,7 +11536,7 @@
       <c r="S41" s="39"/>
       <c r="T41" s="173"/>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B42" s="148">
         <v>28</v>
       </c>
@@ -11494,7 +11575,7 @@
       <c r="S42" s="39"/>
       <c r="T42" s="173"/>
     </row>
-    <row r="43" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B43" s="148">
         <v>36</v>
       </c>
@@ -11531,7 +11612,7 @@
       <c r="S43" s="185"/>
       <c r="T43" s="186"/>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B44" s="148">
         <v>38</v>
       </c>
@@ -11561,7 +11642,7 @@
       <c r="T44" s="39"/>
       <c r="U44" s="39"/>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B45" s="148">
         <v>42</v>
       </c>
@@ -11599,7 +11680,7 @@
       <c r="T45" s="39"/>
       <c r="U45" s="39"/>
     </row>
-    <row r="46" spans="1:28" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:28" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B46" s="148">
         <v>46</v>
       </c>
@@ -11637,7 +11718,7 @@
       <c r="T46" s="39"/>
       <c r="U46" s="39"/>
     </row>
-    <row r="47" spans="1:28" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:28" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B47" s="148">
         <v>50</v>
       </c>
@@ -11684,7 +11765,7 @@
       <c r="AA47" s="170"/>
       <c r="AB47" s="171"/>
     </row>
-    <row r="48" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="148">
         <v>56</v>
       </c>
@@ -11729,7 +11810,7 @@
       <c r="AA48" s="39"/>
       <c r="AB48" s="173"/>
     </row>
-    <row r="49" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="148">
         <v>58</v>
       </c>
@@ -11778,7 +11859,7 @@
       <c r="AA49" s="39"/>
       <c r="AB49" s="173"/>
     </row>
-    <row r="50" spans="2:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="148">
         <v>72</v>
       </c>
@@ -11827,7 +11908,7 @@
       <c r="AA50" s="39"/>
       <c r="AB50" s="173"/>
     </row>
-    <row r="51" spans="2:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="148">
         <v>74</v>
       </c>
@@ -11876,7 +11957,7 @@
       <c r="AA51" s="336"/>
       <c r="AB51" s="337"/>
     </row>
-    <row r="52" spans="2:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="148">
         <v>80</v>
       </c>
@@ -11921,7 +12002,7 @@
       <c r="AA52" s="336"/>
       <c r="AB52" s="337"/>
     </row>
-    <row r="53" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="148">
         <v>81</v>
       </c>
@@ -11966,7 +12047,7 @@
       <c r="AA53" s="336"/>
       <c r="AB53" s="337"/>
     </row>
-    <row r="54" spans="2:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="148">
         <v>105</v>
       </c>
@@ -12015,7 +12096,7 @@
       <c r="AG54" s="39"/>
       <c r="AH54" s="9"/>
     </row>
-    <row r="55" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B55" s="148">
         <v>123</v>
       </c>
@@ -12067,7 +12148,7 @@
       <c r="AG55" s="39"/>
       <c r="AH55" s="9"/>
     </row>
-    <row r="56" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B56" s="157">
         <v>136</v>
       </c>
@@ -12115,7 +12196,7 @@
       <c r="AG56" s="39"/>
       <c r="AH56" s="9"/>
     </row>
-    <row r="57" spans="2:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="221" t="s">
         <v>142</v>
       </c>
@@ -12149,7 +12230,7 @@
       <c r="AG57" s="39"/>
       <c r="AH57" s="9"/>
     </row>
-    <row r="58" spans="2:34" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:34" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B58" s="225"/>
       <c r="C58" s="226"/>
       <c r="D58" s="226"/>
@@ -12180,7 +12261,7 @@
       <c r="AA58" s="39"/>
       <c r="AB58" s="173"/>
     </row>
-    <row r="59" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B59" s="204">
         <v>12</v>
       </c>
@@ -12225,7 +12306,7 @@
       <c r="AA59" s="178"/>
       <c r="AB59" s="179"/>
     </row>
-    <row r="60" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B60" s="148">
         <v>15</v>
       </c>
@@ -12263,7 +12344,7 @@
       <c r="T60" s="39"/>
       <c r="U60" s="39"/>
     </row>
-    <row r="61" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B61" s="148">
         <v>18</v>
       </c>
@@ -12301,7 +12382,7 @@
       <c r="T61" s="39"/>
       <c r="U61" s="39"/>
     </row>
-    <row r="62" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B62" s="148">
         <v>24</v>
       </c>
@@ -12339,7 +12420,7 @@
       <c r="T62" s="39"/>
       <c r="U62" s="39"/>
     </row>
-    <row r="63" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B63" s="148">
         <v>32</v>
       </c>
@@ -12377,7 +12458,7 @@
       <c r="T63" s="39"/>
       <c r="U63" s="39"/>
     </row>
-    <row r="64" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B64" s="148">
         <v>34</v>
       </c>
@@ -12415,7 +12496,7 @@
       <c r="T64" s="39"/>
       <c r="U64" s="39"/>
     </row>
-    <row r="65" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B65" s="148">
         <v>37</v>
       </c>
@@ -12453,7 +12534,7 @@
       <c r="T65" s="39"/>
       <c r="U65" s="39"/>
     </row>
-    <row r="66" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B66" s="148">
         <v>39</v>
       </c>
@@ -12491,7 +12572,7 @@
       <c r="T66" s="39"/>
       <c r="U66" s="39"/>
     </row>
-    <row r="67" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B67" s="148">
         <v>41</v>
       </c>
@@ -12529,7 +12610,7 @@
       <c r="T67" s="39"/>
       <c r="U67" s="39"/>
     </row>
-    <row r="68" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B68" s="148">
         <v>43</v>
       </c>
@@ -12567,7 +12648,7 @@
       <c r="T68" s="39"/>
       <c r="U68" s="39"/>
     </row>
-    <row r="69" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B69" s="148">
         <v>44</v>
       </c>
@@ -12606,7 +12687,7 @@
       <c r="U69" s="39"/>
       <c r="AH69" s="9"/>
     </row>
-    <row r="70" spans="2:34" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:34" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="148">
         <v>48</v>
       </c>
@@ -12645,7 +12726,7 @@
       <c r="U70" s="39"/>
       <c r="AH70" s="9"/>
     </row>
-    <row r="71" spans="2:34" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:34" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="148">
         <v>49</v>
       </c>
@@ -12684,7 +12765,7 @@
       <c r="U71" s="39"/>
       <c r="AH71" s="9"/>
     </row>
-    <row r="72" spans="2:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="148">
         <v>53</v>
       </c>
@@ -12723,7 +12804,7 @@
       <c r="U72" s="39"/>
       <c r="AH72" s="9"/>
     </row>
-    <row r="73" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B73" s="148">
         <v>60</v>
       </c>
@@ -12753,7 +12834,7 @@
       <c r="S73" s="38"/>
       <c r="AH73" s="9"/>
     </row>
-    <row r="74" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B74" s="148">
         <v>61</v>
       </c>
@@ -12781,7 +12862,7 @@
       <c r="J74" s="6"/>
       <c r="AH74" s="9"/>
     </row>
-    <row r="75" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B75" s="148">
         <v>79</v>
       </c>
@@ -12809,7 +12890,7 @@
       <c r="J75" s="6"/>
       <c r="AH75" s="9"/>
     </row>
-    <row r="76" spans="2:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="148">
         <v>87</v>
       </c>
@@ -12837,7 +12918,7 @@
       <c r="J76" s="6"/>
       <c r="AH76" s="9"/>
     </row>
-    <row r="77" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B77" s="148">
         <v>89</v>
       </c>
@@ -12865,7 +12946,7 @@
       <c r="J77" s="6"/>
       <c r="AH77" s="9"/>
     </row>
-    <row r="78" spans="2:34" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:34" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B78" s="157">
         <v>139</v>
       </c>
@@ -12893,7 +12974,7 @@
       <c r="J78" s="6"/>
       <c r="AH78" s="9"/>
     </row>
-    <row r="79" spans="2:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="221" t="s">
         <v>139</v>
       </c>
@@ -12907,7 +12988,7 @@
       <c r="J79" s="6"/>
       <c r="AH79" s="9"/>
     </row>
-    <row r="80" spans="2:34" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:34" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B80" s="225"/>
       <c r="C80" s="226"/>
       <c r="D80" s="226"/>
@@ -12919,7 +13000,7 @@
       <c r="J80" s="6"/>
       <c r="AH80" s="9"/>
     </row>
-    <row r="81" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B81" s="204">
         <v>22</v>
       </c>
@@ -12946,7 +13027,7 @@
       </c>
       <c r="J81" s="6"/>
     </row>
-    <row r="82" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B82" s="148">
         <v>30</v>
       </c>
@@ -12973,7 +13054,7 @@
       </c>
       <c r="J82" s="6"/>
     </row>
-    <row r="83" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B83" s="148">
         <v>33</v>
       </c>
@@ -13000,7 +13081,7 @@
       </c>
       <c r="J83" s="6"/>
     </row>
-    <row r="84" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B84" s="148">
         <v>54</v>
       </c>
@@ -13027,7 +13108,7 @@
       </c>
       <c r="J84" s="6"/>
     </row>
-    <row r="85" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B85" s="148">
         <v>67</v>
       </c>
@@ -13054,7 +13135,7 @@
       </c>
       <c r="J85" s="6"/>
     </row>
-    <row r="86" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B86" s="148">
         <v>68</v>
       </c>
@@ -13081,7 +13162,7 @@
       </c>
       <c r="J86" s="6"/>
     </row>
-    <row r="87" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B87" s="148">
         <v>71</v>
       </c>
@@ -13108,7 +13189,7 @@
       </c>
       <c r="J87" s="6"/>
     </row>
-    <row r="88" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B88" s="148">
         <v>84</v>
       </c>
@@ -13136,7 +13217,7 @@
       <c r="J88" s="6"/>
       <c r="K88" s="38"/>
     </row>
-    <row r="89" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B89" s="148">
         <v>86</v>
       </c>
@@ -13164,7 +13245,7 @@
       <c r="J89" s="6"/>
       <c r="K89" s="38"/>
     </row>
-    <row r="90" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B90" s="148">
         <v>94</v>
       </c>
@@ -13192,7 +13273,7 @@
       <c r="J90" s="6"/>
       <c r="K90" s="38"/>
     </row>
-    <row r="91" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B91" s="148">
         <v>100</v>
       </c>
@@ -13220,7 +13301,7 @@
       <c r="J91" s="8"/>
       <c r="K91" s="38"/>
     </row>
-    <row r="92" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B92" s="148">
         <v>106</v>
       </c>
@@ -13249,7 +13330,7 @@
       <c r="K92" s="38"/>
       <c r="L92" s="52"/>
     </row>
-    <row r="93" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B93" s="148">
         <v>110</v>
       </c>
@@ -13278,7 +13359,7 @@
       <c r="K93" s="38"/>
       <c r="L93" s="52"/>
     </row>
-    <row r="94" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B94" s="157">
         <v>113</v>
       </c>
@@ -13307,7 +13388,7 @@
       <c r="K94" s="38"/>
       <c r="L94" s="52"/>
     </row>
-    <row r="95" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="221" t="s">
         <v>144</v>
       </c>
@@ -13322,7 +13403,7 @@
       <c r="K95" s="38"/>
       <c r="L95" s="52"/>
     </row>
-    <row r="96" spans="2:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B96" s="225"/>
       <c r="C96" s="226"/>
       <c r="D96" s="226"/>
@@ -13335,7 +13416,7 @@
       <c r="K96" s="38"/>
       <c r="L96" s="52"/>
     </row>
-    <row r="97" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B97" s="204">
         <v>13</v>
       </c>
@@ -13364,7 +13445,7 @@
       <c r="K97" s="38"/>
       <c r="L97" s="52"/>
     </row>
-    <row r="98" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B98" s="148">
         <v>25</v>
       </c>
@@ -13393,7 +13474,7 @@
       <c r="K98" s="38"/>
       <c r="L98" s="52"/>
     </row>
-    <row r="99" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B99" s="148">
         <v>31</v>
       </c>
@@ -13422,7 +13503,7 @@
       <c r="K99" s="38"/>
       <c r="L99" s="52"/>
     </row>
-    <row r="100" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B100" s="148">
         <v>40</v>
       </c>
@@ -13451,7 +13532,7 @@
       <c r="K100" s="38"/>
       <c r="L100" s="52"/>
     </row>
-    <row r="101" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B101" s="148">
         <v>47</v>
       </c>
@@ -13480,7 +13561,7 @@
       <c r="K101" s="38"/>
       <c r="L101" s="52"/>
     </row>
-    <row r="102" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B102" s="148">
         <v>51</v>
       </c>
@@ -13509,7 +13590,7 @@
       <c r="K102" s="38"/>
       <c r="L102" s="52"/>
     </row>
-    <row r="103" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B103" s="148">
         <v>52</v>
       </c>
@@ -13538,7 +13619,7 @@
       <c r="K103" s="38"/>
       <c r="L103" s="52"/>
     </row>
-    <row r="104" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B104" s="148">
         <v>55</v>
       </c>
@@ -13567,7 +13648,7 @@
       <c r="K104" s="38"/>
       <c r="L104" s="52"/>
     </row>
-    <row r="105" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B105" s="148">
         <v>59</v>
       </c>
@@ -13596,7 +13677,7 @@
       <c r="K105" s="38"/>
       <c r="L105" s="52"/>
     </row>
-    <row r="106" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B106" s="148">
         <v>62</v>
       </c>
@@ -13625,7 +13706,7 @@
       <c r="K106" s="38"/>
       <c r="L106" s="52"/>
     </row>
-    <row r="107" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B107" s="148">
         <v>64</v>
       </c>
@@ -13654,7 +13735,7 @@
       <c r="K107" s="38"/>
       <c r="L107" s="52"/>
     </row>
-    <row r="108" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B108" s="148">
         <v>69</v>
       </c>
@@ -13683,7 +13764,7 @@
       <c r="K108" s="38"/>
       <c r="L108" s="52"/>
     </row>
-    <row r="109" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B109" s="148">
         <v>70</v>
       </c>
@@ -13712,7 +13793,7 @@
       <c r="K109" s="38"/>
       <c r="L109" s="52"/>
     </row>
-    <row r="110" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B110" s="148">
         <v>73</v>
       </c>
@@ -13741,7 +13822,7 @@
       <c r="K110" s="38"/>
       <c r="L110" s="52"/>
     </row>
-    <row r="111" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B111" s="148">
         <v>76</v>
       </c>
@@ -13770,7 +13851,7 @@
       <c r="K111" s="38"/>
       <c r="L111" s="52"/>
     </row>
-    <row r="112" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B112" s="148">
         <v>78</v>
       </c>
@@ -13799,7 +13880,7 @@
       <c r="K112" s="38"/>
       <c r="L112" s="52"/>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B113" s="148">
         <v>82</v>
       </c>
@@ -13828,7 +13909,7 @@
       <c r="K113" s="38"/>
       <c r="L113" s="52"/>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B114" s="148">
         <v>90</v>
       </c>
@@ -13857,7 +13938,7 @@
       <c r="K114" s="38"/>
       <c r="L114" s="52"/>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B115" s="148">
         <v>102</v>
       </c>
@@ -13886,7 +13967,7 @@
       <c r="K115" s="38"/>
       <c r="L115" s="52"/>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B116" s="148">
         <v>107</v>
       </c>
@@ -13915,7 +13996,7 @@
       <c r="K116" s="38"/>
       <c r="L116" s="52"/>
     </row>
-    <row r="117" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B117" s="148">
         <v>109</v>
       </c>
@@ -13944,7 +14025,7 @@
       <c r="K117" s="38"/>
       <c r="L117" s="52"/>
     </row>
-    <row r="118" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B118" s="148">
         <v>114</v>
       </c>
@@ -13973,7 +14054,7 @@
       <c r="K118" s="38"/>
       <c r="L118" s="52"/>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B119" s="148">
         <v>116</v>
       </c>
@@ -14002,7 +14083,7 @@
       <c r="K119" s="38"/>
       <c r="L119" s="52"/>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B120" s="148">
         <v>118</v>
       </c>
@@ -14031,7 +14112,7 @@
       <c r="K120" s="38"/>
       <c r="L120" s="52"/>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B121" s="148">
         <v>121</v>
       </c>
@@ -14060,7 +14141,7 @@
       <c r="K121" s="38"/>
       <c r="L121" s="52"/>
     </row>
-    <row r="122" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B122" s="157">
         <v>134</v>
       </c>
@@ -14089,7 +14170,7 @@
       <c r="K122" s="38"/>
       <c r="L122" s="52"/>
     </row>
-    <row r="123" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A123" s="9"/>
       <c r="B123" s="255" t="s">
         <v>140</v>
@@ -14104,7 +14185,7 @@
       <c r="K123" s="38"/>
       <c r="L123" s="52"/>
     </row>
-    <row r="124" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A124" s="9"/>
       <c r="B124" s="260"/>
       <c r="C124" s="261"/>
@@ -14117,7 +14198,7 @@
       <c r="K124" s="38"/>
       <c r="L124" s="52"/>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B125" s="204">
         <v>63</v>
       </c>
@@ -14145,7 +14226,7 @@
       <c r="K125" s="38"/>
       <c r="L125" s="52"/>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B126" s="148">
         <v>66</v>
       </c>
@@ -14173,7 +14254,7 @@
       <c r="K126" s="38"/>
       <c r="L126" s="52"/>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B127" s="148">
         <v>77</v>
       </c>
@@ -14201,7 +14282,7 @@
       <c r="K127" s="38"/>
       <c r="L127" s="52"/>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B128" s="148">
         <v>83</v>
       </c>
@@ -14229,7 +14310,7 @@
       <c r="K128" s="38"/>
       <c r="L128" s="52"/>
     </row>
-    <row r="129" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B129" s="148">
         <v>88</v>
       </c>
@@ -14257,7 +14338,7 @@
       <c r="K129" s="38"/>
       <c r="L129" s="52"/>
     </row>
-    <row r="130" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B130" s="148">
         <v>93</v>
       </c>
@@ -14285,7 +14366,7 @@
       <c r="K130" s="38"/>
       <c r="L130" s="52"/>
     </row>
-    <row r="131" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B131" s="148">
         <v>95</v>
       </c>
@@ -14313,7 +14394,7 @@
       <c r="K131" s="38"/>
       <c r="L131" s="52"/>
     </row>
-    <row r="132" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B132" s="148">
         <v>96</v>
       </c>
@@ -14341,7 +14422,7 @@
       <c r="K132" s="38"/>
       <c r="L132" s="52"/>
     </row>
-    <row r="133" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B133" s="148">
         <v>97</v>
       </c>
@@ -14369,7 +14450,7 @@
       <c r="K133" s="38"/>
       <c r="L133" s="52"/>
     </row>
-    <row r="134" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B134" s="148">
         <v>98</v>
       </c>
@@ -14397,7 +14478,7 @@
       <c r="K134" s="38"/>
       <c r="L134" s="52"/>
     </row>
-    <row r="135" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B135" s="148">
         <v>99</v>
       </c>
@@ -14425,7 +14506,7 @@
       <c r="K135" s="38"/>
       <c r="L135" s="52"/>
     </row>
-    <row r="136" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B136" s="148">
         <v>101</v>
       </c>
@@ -14453,7 +14534,7 @@
       <c r="K136" s="38"/>
       <c r="L136" s="52"/>
     </row>
-    <row r="137" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B137" s="148">
         <v>103</v>
       </c>
@@ -14481,7 +14562,7 @@
       <c r="K137" s="38"/>
       <c r="L137" s="52"/>
     </row>
-    <row r="138" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B138" s="148">
         <v>104</v>
       </c>
@@ -14509,7 +14590,7 @@
       <c r="K138" s="38"/>
       <c r="L138" s="52"/>
     </row>
-    <row r="139" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B139" s="148">
         <v>111</v>
       </c>
@@ -14537,7 +14618,7 @@
       <c r="K139" s="38"/>
       <c r="L139" s="52"/>
     </row>
-    <row r="140" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B140" s="148">
         <v>112</v>
       </c>
@@ -14565,7 +14646,7 @@
       <c r="K140" s="38"/>
       <c r="L140" s="52"/>
     </row>
-    <row r="141" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B141" s="148">
         <v>115</v>
       </c>
@@ -14593,7 +14674,7 @@
       <c r="K141" s="38"/>
       <c r="L141" s="52"/>
     </row>
-    <row r="142" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B142" s="148">
         <v>117</v>
       </c>
@@ -14621,7 +14702,7 @@
       <c r="K142" s="38"/>
       <c r="L142" s="52"/>
     </row>
-    <row r="143" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B143" s="148">
         <v>119</v>
       </c>
@@ -14649,7 +14730,7 @@
       <c r="K143" s="38"/>
       <c r="L143" s="52"/>
     </row>
-    <row r="144" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B144" s="148">
         <v>120</v>
       </c>
@@ -14677,7 +14758,7 @@
       <c r="K144" s="38"/>
       <c r="L144" s="52"/>
     </row>
-    <row r="145" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B145" s="148">
         <v>122</v>
       </c>
@@ -14705,7 +14786,7 @@
       <c r="K145" s="38"/>
       <c r="L145" s="52"/>
     </row>
-    <row r="146" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B146" s="148">
         <v>124</v>
       </c>
@@ -14733,7 +14814,7 @@
       <c r="K146" s="38"/>
       <c r="L146" s="52"/>
     </row>
-    <row r="147" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B147" s="148">
         <v>125</v>
       </c>
@@ -14760,7 +14841,7 @@
       </c>
       <c r="K147" s="38"/>
     </row>
-    <row r="148" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B148" s="148">
         <v>126</v>
       </c>
@@ -14787,7 +14868,7 @@
       </c>
       <c r="K148" s="38"/>
     </row>
-    <row r="149" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B149" s="148">
         <v>127</v>
       </c>
@@ -14814,7 +14895,7 @@
       </c>
       <c r="K149" s="38"/>
     </row>
-    <row r="150" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B150" s="148">
         <v>128</v>
       </c>
@@ -14841,7 +14922,7 @@
       </c>
       <c r="K150" s="38"/>
     </row>
-    <row r="151" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B151" s="148">
         <v>129</v>
       </c>
@@ -14868,7 +14949,7 @@
       </c>
       <c r="K151" s="38"/>
     </row>
-    <row r="152" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B152" s="148">
         <v>131</v>
       </c>
@@ -14895,7 +14976,7 @@
       </c>
       <c r="K152" s="38"/>
     </row>
-    <row r="153" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B153" s="148">
         <v>132</v>
       </c>
@@ -14926,7 +15007,7 @@
       <c r="R153" s="26"/>
       <c r="S153" s="26"/>
     </row>
-    <row r="154" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B154" s="148">
         <v>133</v>
       </c>
@@ -14953,7 +15034,7 @@
       </c>
       <c r="K154" s="53"/>
     </row>
-    <row r="155" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B155" s="148">
         <v>135</v>
       </c>
@@ -14979,7 +15060,7 @@
         <v>14.438557469478425</v>
       </c>
     </row>
-    <row r="156" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B156" s="148">
         <v>137</v>
       </c>
@@ -15007,7 +15088,7 @@
       <c r="N156" s="26"/>
       <c r="O156" s="26"/>
     </row>
-    <row r="157" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B157" s="148">
         <v>138</v>
       </c>
@@ -15034,7 +15115,7 @@
       </c>
       <c r="K157" s="26"/>
     </row>
-    <row r="158" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B158" s="157">
         <v>140</v>
       </c>
@@ -15069,7 +15150,7 @@
     <mergeCell ref="M55:AB57"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="L58" r:id="rId1"/>
+    <hyperlink ref="L58" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
@@ -15077,35 +15158,35 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:U18"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.140625" customWidth="1"/>
-    <col min="2" max="2" width="5.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" customWidth="1"/>
-    <col min="5" max="5" width="2" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" customWidth="1"/>
-    <col min="8" max="8" width="6.85546875" customWidth="1"/>
-    <col min="9" max="9" width="1.85546875" customWidth="1"/>
-    <col min="10" max="10" width="6.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" customWidth="1"/>
-    <col min="13" max="13" width="1.85546875" customWidth="1"/>
-    <col min="14" max="14" width="8" customWidth="1"/>
-    <col min="15" max="15" width="20" customWidth="1"/>
-    <col min="16" max="16" width="12.42578125" customWidth="1"/>
-    <col min="17" max="17" width="1.85546875" customWidth="1"/>
-    <col min="19" max="19" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.09375" customWidth="1"/>
+    <col min="2" max="2" width="5.91796875" customWidth="1"/>
+    <col min="3" max="3" width="14.390625" customWidth="1"/>
+    <col min="4" max="4" width="8.875" customWidth="1"/>
+    <col min="5" max="5" width="2.015625" customWidth="1"/>
+    <col min="7" max="7" width="14.52734375" customWidth="1"/>
+    <col min="8" max="8" width="6.859375" customWidth="1"/>
+    <col min="9" max="9" width="1.8828125" customWidth="1"/>
+    <col min="10" max="10" width="6.3203125" customWidth="1"/>
+    <col min="11" max="11" width="14.52734375" customWidth="1"/>
+    <col min="12" max="12" width="8.875" customWidth="1"/>
+    <col min="13" max="13" width="1.8828125" customWidth="1"/>
+    <col min="14" max="14" width="7.93359375" customWidth="1"/>
+    <col min="15" max="15" width="20.04296875" customWidth="1"/>
+    <col min="16" max="16" width="12.375" customWidth="1"/>
+    <col min="17" max="17" width="1.8828125" customWidth="1"/>
+    <col min="19" max="19" width="16.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="81"/>
       <c r="B1" s="343"/>
       <c r="C1" s="343"/>
@@ -15127,7 +15208,7 @@
       <c r="S1" s="343"/>
       <c r="T1" s="343"/>
     </row>
-    <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="81"/>
       <c r="B2" s="264" t="s">
         <v>208</v>
@@ -15151,7 +15232,7 @@
       <c r="S2" s="116"/>
       <c r="T2" s="116"/>
     </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="81"/>
       <c r="B3" s="116"/>
       <c r="C3" s="116"/>
@@ -15173,7 +15254,7 @@
       <c r="S3" s="116"/>
       <c r="T3" s="116"/>
     </row>
-    <row r="4" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="81"/>
       <c r="B4" s="116"/>
       <c r="C4" s="116"/>
@@ -15195,7 +15276,7 @@
       <c r="S4" s="116"/>
       <c r="T4" s="116"/>
     </row>
-    <row r="5" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="81"/>
       <c r="B5" s="116"/>
       <c r="C5" s="116"/>
@@ -15217,7 +15298,7 @@
       <c r="S5" s="116"/>
       <c r="T5" s="116"/>
     </row>
-    <row r="6" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="28"/>
       <c r="B6" s="265" t="s">
         <v>209</v>
@@ -15260,7 +15341,7 @@
       <c r="T6" s="351"/>
       <c r="U6" s="28"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="28"/>
       <c r="B7" s="266">
         <v>1</v>
@@ -15313,7 +15394,7 @@
       </c>
       <c r="U7" s="28"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="28"/>
       <c r="B8" s="266">
         <v>2</v>
@@ -15366,7 +15447,7 @@
       </c>
       <c r="U8" s="28"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="28"/>
       <c r="B9" s="266">
         <v>3</v>
@@ -15419,7 +15500,7 @@
       </c>
       <c r="U9" s="28"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="28"/>
       <c r="B10" s="266">
         <v>4</v>
@@ -15472,7 +15553,7 @@
       </c>
       <c r="U10" s="28"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="28"/>
       <c r="B11" s="266">
         <v>5</v>
@@ -15525,7 +15606,7 @@
       </c>
       <c r="U11" s="28"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="28"/>
       <c r="B12" s="266">
         <v>6</v>
@@ -15578,7 +15659,7 @@
       </c>
       <c r="U12" s="28"/>
     </row>
-    <row r="13" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="28"/>
       <c r="B13" s="268">
         <v>7</v>
@@ -15631,7 +15712,7 @@
       </c>
       <c r="U13" s="28"/>
     </row>
-    <row r="14" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="28"/>
       <c r="B14" s="352" t="s">
         <v>212</v>
@@ -15674,7 +15755,7 @@
       </c>
       <c r="U14" s="28"/>
     </row>
-    <row r="15" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="28"/>
       <c r="B15" s="271">
         <v>138</v>
@@ -15725,7 +15806,7 @@
       </c>
       <c r="U15" s="28"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="28"/>
       <c r="B16" s="273">
         <v>139</v>
@@ -15778,7 +15859,7 @@
       </c>
       <c r="U16" s="28"/>
     </row>
-    <row r="17" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="28"/>
       <c r="B17" s="275">
         <v>140</v>
@@ -15831,7 +15912,7 @@
       </c>
       <c r="U17" s="28"/>
     </row>
-    <row r="18" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="28"/>
       <c r="B18" s="89"/>
       <c r="C18" s="89"/>
@@ -15881,37 +15962,37 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AP164"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C163" sqref="C163"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" customWidth="1"/>
-    <col min="2" max="2" width="6.5703125" customWidth="1"/>
-    <col min="3" max="3" width="28.5703125" customWidth="1"/>
-    <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
-    <col min="6" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="9" width="12.140625" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" style="108" customWidth="1"/>
-    <col min="14" max="14" width="16" customWidth="1"/>
-    <col min="15" max="15" width="16.7109375" customWidth="1"/>
-    <col min="17" max="17" width="5.42578125" customWidth="1"/>
-    <col min="18" max="18" width="6.140625" customWidth="1"/>
-    <col min="19" max="19" width="20.85546875" customWidth="1"/>
-    <col min="20" max="20" width="2.5703125" customWidth="1"/>
-    <col min="21" max="21" width="4" customWidth="1"/>
-    <col min="35" max="35" width="4.7109375" customWidth="1"/>
+    <col min="1" max="1" width="3.8984375" customWidth="1"/>
+    <col min="2" max="2" width="6.58984375" customWidth="1"/>
+    <col min="3" max="3" width="28.515625" customWidth="1"/>
+    <col min="4" max="4" width="29.0546875" customWidth="1"/>
+    <col min="5" max="5" width="13.1796875" customWidth="1"/>
+    <col min="6" max="7" width="10.76171875" customWidth="1"/>
+    <col min="8" max="9" width="12.10546875" customWidth="1"/>
+    <col min="10" max="10" width="12.5078125" customWidth="1"/>
+    <col min="11" max="11" width="12.10546875" customWidth="1"/>
+    <col min="12" max="12" width="14.125" customWidth="1"/>
+    <col min="13" max="13" width="12.9140625" style="108" customWidth="1"/>
+    <col min="14" max="14" width="16.0078125" customWidth="1"/>
+    <col min="15" max="15" width="16.6796875" customWidth="1"/>
+    <col min="17" max="17" width="5.37890625" customWidth="1"/>
+    <col min="18" max="18" width="6.1875" customWidth="1"/>
+    <col min="19" max="19" width="20.84765625" customWidth="1"/>
+    <col min="20" max="20" width="2.5546875" customWidth="1"/>
+    <col min="21" max="21" width="4.03515625" customWidth="1"/>
+    <col min="35" max="35" width="4.70703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="90"/>
       <c r="H1" s="90"/>
       <c r="I1" s="90"/>
@@ -15925,7 +16006,7 @@
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
     </row>
-    <row r="2" spans="1:39" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:39" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="300" t="s">
         <v>216</v>
       </c>
@@ -15942,7 +16023,7 @@
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
     </row>
-    <row r="3" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="91"/>
       <c r="H3" s="90"/>
       <c r="I3" s="90"/>
@@ -15955,7 +16036,7 @@
       <c r="W3" s="4"/>
       <c r="X3" s="1"/>
     </row>
-    <row r="4" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="92"/>
       <c r="H4" s="90"/>
       <c r="I4" s="90"/>
@@ -15981,7 +16062,7 @@
       <c r="AH4" s="113"/>
       <c r="AI4" s="113"/>
     </row>
-    <row r="5" spans="1:39" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:39" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="90"/>
       <c r="H5" s="90"/>
       <c r="I5" s="90"/>
@@ -16007,7 +16088,7 @@
       <c r="AH5" s="113"/>
       <c r="AI5" s="113"/>
     </row>
-    <row r="6" spans="1:39" s="7" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" s="7" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="301" t="s">
         <v>165</v>
@@ -16075,7 +16156,7 @@
       <c r="AL6" s="5"/>
       <c r="AM6" s="5"/>
     </row>
-    <row r="7" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="148">
         <v>110</v>
       </c>
@@ -16142,7 +16223,7 @@
       <c r="AL7" s="9"/>
       <c r="AM7" s="9"/>
     </row>
-    <row r="8" spans="1:39" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="148">
         <v>13</v>
       </c>
@@ -16209,7 +16290,7 @@
       <c r="AL8" s="9"/>
       <c r="AM8" s="9"/>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B9" s="148">
         <v>30</v>
       </c>
@@ -16276,7 +16357,7 @@
       <c r="AL9" s="9"/>
       <c r="AM9" s="9"/>
     </row>
-    <row r="10" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="148">
         <v>19</v>
       </c>
@@ -16343,7 +16424,7 @@
       <c r="AL10" s="9"/>
       <c r="AM10" s="9"/>
     </row>
-    <row r="11" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="148">
         <v>73</v>
       </c>
@@ -16410,7 +16491,7 @@
       <c r="AL11" s="9"/>
       <c r="AM11" s="9"/>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B12" s="148">
         <v>105</v>
       </c>
@@ -16477,7 +16558,7 @@
       <c r="AL12" s="9"/>
       <c r="AM12" s="9"/>
     </row>
-    <row r="13" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="148">
         <v>43</v>
       </c>
@@ -16544,7 +16625,7 @@
       <c r="AL13" s="9"/>
       <c r="AM13" s="9"/>
     </row>
-    <row r="14" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="148">
         <v>8</v>
       </c>
@@ -16611,7 +16692,7 @@
       <c r="AL14" s="9"/>
       <c r="AM14" s="9"/>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B15" s="148">
         <v>102</v>
       </c>
@@ -16678,7 +16759,7 @@
       <c r="AL15" s="9"/>
       <c r="AM15" s="9"/>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B16" s="148">
         <v>87</v>
       </c>
@@ -16745,7 +16826,7 @@
       <c r="AL16" s="9"/>
       <c r="AM16" s="9"/>
     </row>
-    <row r="17" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B17" s="148">
         <v>27</v>
       </c>
@@ -16812,7 +16893,7 @@
       <c r="AL17" s="9"/>
       <c r="AM17" s="9"/>
     </row>
-    <row r="18" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B18" s="148">
         <v>137</v>
       </c>
@@ -16880,7 +16961,7 @@
       <c r="AL18" s="9"/>
       <c r="AM18" s="9"/>
     </row>
-    <row r="19" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B19" s="148">
         <v>56</v>
       </c>
@@ -16948,7 +17029,7 @@
       <c r="AL19" s="9"/>
       <c r="AM19" s="9"/>
     </row>
-    <row r="20" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B20" s="148">
         <v>92</v>
       </c>
@@ -16994,7 +17075,7 @@
       <c r="P20" s="8"/>
       <c r="Q20" s="94"/>
     </row>
-    <row r="21" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B21" s="148">
         <v>76</v>
       </c>
@@ -17040,7 +17121,7 @@
       <c r="P21" s="8"/>
       <c r="Q21" s="11"/>
     </row>
-    <row r="22" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B22" s="148">
         <v>126</v>
       </c>
@@ -17086,7 +17167,7 @@
       <c r="P22" s="8"/>
       <c r="Q22" s="11"/>
     </row>
-    <row r="23" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B23" s="148">
         <v>23</v>
       </c>
@@ -17134,7 +17215,7 @@
       <c r="R23" s="95"/>
       <c r="S23" s="9"/>
     </row>
-    <row r="24" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B24" s="148">
         <v>109</v>
       </c>
@@ -17182,7 +17263,7 @@
       <c r="R24" s="95"/>
       <c r="S24" s="9"/>
     </row>
-    <row r="25" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B25" s="148">
         <v>119</v>
       </c>
@@ -17230,7 +17311,7 @@
       <c r="R25" s="95"/>
       <c r="S25" s="9"/>
     </row>
-    <row r="26" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B26" s="148">
         <v>131</v>
       </c>
@@ -17278,7 +17359,7 @@
       <c r="R26" s="95"/>
       <c r="S26" s="9"/>
     </row>
-    <row r="27" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B27" s="148">
         <v>74</v>
       </c>
@@ -17326,7 +17407,7 @@
       <c r="R27" s="95"/>
       <c r="S27" s="9"/>
     </row>
-    <row r="28" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B28" s="148">
         <v>124</v>
       </c>
@@ -17374,7 +17455,7 @@
       <c r="R28" s="95"/>
       <c r="S28" s="9"/>
     </row>
-    <row r="29" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B29" s="148">
         <v>85</v>
       </c>
@@ -17422,7 +17503,7 @@
       <c r="R29" s="95"/>
       <c r="S29" s="9"/>
     </row>
-    <row r="30" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B30" s="148">
         <v>140</v>
       </c>
@@ -17470,7 +17551,7 @@
       <c r="R30" s="95"/>
       <c r="S30" s="9"/>
     </row>
-    <row r="31" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B31" s="148">
         <v>35</v>
       </c>
@@ -17518,7 +17599,7 @@
       <c r="R31" s="95"/>
       <c r="S31" s="9"/>
     </row>
-    <row r="32" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B32" s="148">
         <v>72</v>
       </c>
@@ -17566,7 +17647,7 @@
       <c r="R32" s="97"/>
       <c r="S32" s="9"/>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B33" s="148">
         <v>3</v>
       </c>
@@ -17614,7 +17695,7 @@
       <c r="R33" s="97"/>
       <c r="S33" s="9"/>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B34" s="148">
         <v>93</v>
       </c>
@@ -17662,7 +17743,7 @@
       <c r="R34" s="97"/>
       <c r="S34" s="9"/>
     </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B35" s="148">
         <v>1</v>
       </c>
@@ -17710,7 +17791,7 @@
       <c r="R35" s="97"/>
       <c r="S35" s="9"/>
     </row>
-    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B36" s="148">
         <v>135</v>
       </c>
@@ -17758,7 +17839,7 @@
       <c r="R36" s="97"/>
       <c r="S36" s="9"/>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="148">
         <v>47</v>
       </c>
@@ -17805,7 +17886,7 @@
       <c r="Q37" s="101"/>
       <c r="R37" s="1"/>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B38" s="148">
         <v>41</v>
       </c>
@@ -17852,7 +17933,7 @@
       <c r="Q38" s="101"/>
       <c r="R38" s="1"/>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B39" s="148">
         <v>64</v>
       </c>
@@ -17899,7 +17980,7 @@
       <c r="Q39" s="101"/>
       <c r="R39" s="1"/>
     </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B40" s="148">
         <v>32</v>
       </c>
@@ -17946,7 +18027,7 @@
       <c r="Q40" s="101"/>
       <c r="R40" s="1"/>
     </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B41" s="148">
         <v>127</v>
       </c>
@@ -17993,7 +18074,7 @@
       <c r="Q41" s="102"/>
       <c r="R41" s="1"/>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B42" s="148">
         <v>45</v>
       </c>
@@ -18040,7 +18121,7 @@
       <c r="Q42" s="103"/>
       <c r="R42" s="1"/>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B43" s="148">
         <v>10</v>
       </c>
@@ -18087,7 +18168,7 @@
       <c r="Q43" s="101"/>
       <c r="R43" s="1"/>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B44" s="148">
         <v>86</v>
       </c>
@@ -18134,7 +18215,7 @@
       <c r="Q44" s="101"/>
       <c r="R44" s="1"/>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B45" s="148">
         <v>17</v>
       </c>
@@ -18181,7 +18262,7 @@
       <c r="Q45" s="101"/>
       <c r="R45" s="1"/>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B46" s="148">
         <v>118</v>
       </c>
@@ -18228,7 +18309,7 @@
       <c r="Q46" s="101"/>
       <c r="R46" s="1"/>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B47" s="148">
         <v>66</v>
       </c>
@@ -18275,7 +18356,7 @@
       <c r="Q47" s="101"/>
       <c r="R47" s="1"/>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B48" s="148">
         <v>37</v>
       </c>
@@ -18322,7 +18403,7 @@
       <c r="Q48" s="101"/>
       <c r="R48" s="1"/>
     </row>
-    <row r="49" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B49" s="148">
         <v>44</v>
       </c>
@@ -18369,7 +18450,7 @@
       <c r="Q49" s="101"/>
       <c r="R49" s="1"/>
     </row>
-    <row r="50" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B50" s="148">
         <v>120</v>
       </c>
@@ -18416,7 +18497,7 @@
       <c r="Q50" s="101"/>
       <c r="R50" s="1"/>
     </row>
-    <row r="51" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B51" s="148">
         <v>40</v>
       </c>
@@ -18463,7 +18544,7 @@
       <c r="Q51" s="101"/>
       <c r="R51" s="1"/>
     </row>
-    <row r="52" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B52" s="148">
         <v>49</v>
       </c>
@@ -18510,7 +18591,7 @@
       <c r="Q52" s="101"/>
       <c r="R52" s="1"/>
     </row>
-    <row r="53" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B53" s="148">
         <v>104</v>
       </c>
@@ -18557,7 +18638,7 @@
       <c r="Q53" s="101"/>
       <c r="R53" s="1"/>
     </row>
-    <row r="54" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B54" s="148">
         <v>89</v>
       </c>
@@ -18604,7 +18685,7 @@
       <c r="Q54" s="101"/>
       <c r="R54" s="1"/>
     </row>
-    <row r="55" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B55" s="148">
         <v>26</v>
       </c>
@@ -18651,7 +18732,7 @@
       <c r="Q55" s="101"/>
       <c r="R55" s="1"/>
     </row>
-    <row r="56" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B56" s="148">
         <v>129</v>
       </c>
@@ -18698,7 +18779,7 @@
       <c r="Q56" s="101"/>
       <c r="R56" s="1"/>
     </row>
-    <row r="57" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B57" s="148">
         <v>57</v>
       </c>
@@ -18745,7 +18826,7 @@
       <c r="Q57" s="101"/>
       <c r="R57" s="1"/>
     </row>
-    <row r="58" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B58" s="148">
         <v>65</v>
       </c>
@@ -18792,7 +18873,7 @@
       <c r="Q58" s="101"/>
       <c r="R58" s="1"/>
     </row>
-    <row r="59" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B59" s="148">
         <v>123</v>
       </c>
@@ -18839,7 +18920,7 @@
       <c r="Q59" s="101"/>
       <c r="R59" s="1"/>
     </row>
-    <row r="60" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B60" s="148">
         <v>69</v>
       </c>
@@ -18886,7 +18967,7 @@
       <c r="Q60" s="101"/>
       <c r="R60" s="1"/>
     </row>
-    <row r="61" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B61" s="148">
         <v>39</v>
       </c>
@@ -18933,7 +19014,7 @@
       <c r="Q61" s="101"/>
       <c r="R61" s="1"/>
     </row>
-    <row r="62" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B62" s="148">
         <v>50</v>
       </c>
@@ -18980,7 +19061,7 @@
       <c r="Q62" s="1"/>
       <c r="R62" s="1"/>
     </row>
-    <row r="63" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B63" s="148">
         <v>16</v>
       </c>
@@ -19027,7 +19108,7 @@
       <c r="Q63" s="103"/>
       <c r="R63" s="1"/>
     </row>
-    <row r="64" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B64" s="148">
         <v>84</v>
       </c>
@@ -19074,7 +19155,7 @@
       <c r="Q64" s="104"/>
       <c r="R64" s="1"/>
     </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B65" s="148">
         <v>67</v>
       </c>
@@ -19121,7 +19202,7 @@
       <c r="Q65" s="104"/>
       <c r="R65" s="105"/>
     </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B66" s="148">
         <v>48</v>
       </c>
@@ -19168,7 +19249,7 @@
       <c r="Q66" s="104"/>
       <c r="R66" s="14"/>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B67" s="148">
         <v>54</v>
       </c>
@@ -19215,7 +19296,7 @@
       <c r="Q67" s="104"/>
       <c r="R67" s="14"/>
     </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B68" s="148">
         <v>60</v>
       </c>
@@ -19262,7 +19343,7 @@
       <c r="Q68" s="104"/>
       <c r="R68" s="14"/>
     </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B69" s="148">
         <v>11</v>
       </c>
@@ -19307,7 +19388,7 @@
       </c>
       <c r="P69" s="8"/>
     </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B70" s="148">
         <v>58</v>
       </c>
@@ -19352,7 +19433,7 @@
       </c>
       <c r="P70" s="8"/>
     </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B71" s="148">
         <v>114</v>
       </c>
@@ -19397,7 +19478,7 @@
       </c>
       <c r="P71" s="8"/>
     </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B72" s="148">
         <v>83</v>
       </c>
@@ -19442,7 +19523,7 @@
       </c>
       <c r="P72" s="8"/>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B73" s="148">
         <v>31</v>
       </c>
@@ -19487,7 +19568,7 @@
       </c>
       <c r="P73" s="8"/>
     </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B74" s="148">
         <v>121</v>
       </c>
@@ -19532,7 +19613,7 @@
       </c>
       <c r="P74" s="8"/>
     </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B75" s="148">
         <v>100</v>
       </c>
@@ -19577,7 +19658,7 @@
       </c>
       <c r="P75" s="8"/>
     </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B76" s="148">
         <v>125</v>
       </c>
@@ -19622,7 +19703,7 @@
       </c>
       <c r="P76" s="8"/>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B77" s="148">
         <v>96</v>
       </c>
@@ -19667,7 +19748,7 @@
       </c>
       <c r="P77" s="8"/>
     </row>
-    <row r="78" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B78" s="148">
         <v>107</v>
       </c>
@@ -19712,7 +19793,7 @@
       </c>
       <c r="P78" s="8"/>
     </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="148">
         <v>139</v>
       </c>
@@ -19757,7 +19838,7 @@
       </c>
       <c r="P79" s="8"/>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B80" s="148">
         <v>90</v>
       </c>
@@ -19802,7 +19883,7 @@
       </c>
       <c r="P80" s="8"/>
     </row>
-    <row r="81" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B81" s="148">
         <v>98</v>
       </c>
@@ -19847,7 +19928,7 @@
       </c>
       <c r="P81" s="8"/>
     </row>
-    <row r="82" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B82" s="148">
         <v>46</v>
       </c>
@@ -19893,7 +19974,7 @@
       <c r="P82" s="8"/>
       <c r="Q82" s="15"/>
     </row>
-    <row r="83" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B83" s="148">
         <v>53</v>
       </c>
@@ -19939,7 +20020,7 @@
       <c r="P83" s="8"/>
       <c r="Q83" s="15"/>
     </row>
-    <row r="84" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B84" s="148">
         <v>117</v>
       </c>
@@ -19985,7 +20066,7 @@
       <c r="P84" s="8"/>
       <c r="Q84" s="15"/>
     </row>
-    <row r="85" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B85" s="148">
         <v>63</v>
       </c>
@@ -20031,7 +20112,7 @@
       <c r="P85" s="8"/>
       <c r="Q85" s="15"/>
     </row>
-    <row r="86" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B86" s="148">
         <v>2</v>
       </c>
@@ -20077,7 +20158,7 @@
       <c r="P86" s="8"/>
       <c r="Q86" s="15"/>
     </row>
-    <row r="87" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B87" s="148">
         <v>136</v>
       </c>
@@ -20123,7 +20204,7 @@
       <c r="P87" s="8"/>
       <c r="Q87" s="15"/>
     </row>
-    <row r="88" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B88" s="148">
         <v>78</v>
       </c>
@@ -20169,7 +20250,7 @@
       <c r="P88" s="8"/>
       <c r="Q88" s="15"/>
     </row>
-    <row r="89" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B89" s="148">
         <v>33</v>
       </c>
@@ -20215,7 +20296,7 @@
       <c r="P89" s="8"/>
       <c r="Q89" s="15"/>
     </row>
-    <row r="90" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B90" s="148">
         <v>88</v>
       </c>
@@ -20261,7 +20342,7 @@
       <c r="P90" s="8"/>
       <c r="Q90" s="15"/>
     </row>
-    <row r="91" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B91" s="148">
         <v>81</v>
       </c>
@@ -20307,7 +20388,7 @@
       <c r="P91" s="8"/>
       <c r="Q91" s="15"/>
     </row>
-    <row r="92" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B92" s="148">
         <v>103</v>
       </c>
@@ -20353,7 +20434,7 @@
       <c r="P92" s="8"/>
       <c r="Q92" s="15"/>
     </row>
-    <row r="93" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B93" s="148">
         <v>42</v>
       </c>
@@ -20399,7 +20480,7 @@
       <c r="P93" s="8"/>
       <c r="Q93" s="15"/>
     </row>
-    <row r="94" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B94" s="148">
         <v>18</v>
       </c>
@@ -20445,7 +20526,7 @@
       <c r="P94" s="8"/>
       <c r="Q94" s="15"/>
     </row>
-    <row r="95" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B95" s="148">
         <v>38</v>
       </c>
@@ -20491,7 +20572,7 @@
       <c r="P95" s="8"/>
       <c r="Q95" s="15"/>
     </row>
-    <row r="96" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B96" s="148">
         <v>7</v>
       </c>
@@ -20537,7 +20618,7 @@
       <c r="P96" s="8"/>
       <c r="Q96" s="15"/>
     </row>
-    <row r="97" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B97" s="148">
         <v>122</v>
       </c>
@@ -20583,7 +20664,7 @@
       <c r="P97" s="8"/>
       <c r="Q97" s="15"/>
     </row>
-    <row r="98" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B98" s="148">
         <v>95</v>
       </c>
@@ -20629,7 +20710,7 @@
       <c r="P98" s="8"/>
       <c r="Q98" s="15"/>
     </row>
-    <row r="99" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B99" s="148">
         <v>12</v>
       </c>
@@ -20675,7 +20756,7 @@
       <c r="P99" s="8"/>
       <c r="Q99" s="15"/>
     </row>
-    <row r="100" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B100" s="148">
         <v>106</v>
       </c>
@@ -20721,7 +20802,7 @@
       <c r="P100" s="8"/>
       <c r="Q100" s="15"/>
     </row>
-    <row r="101" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B101" s="148">
         <v>36</v>
       </c>
@@ -20767,7 +20848,7 @@
       <c r="P101" s="8"/>
       <c r="Q101" s="15"/>
     </row>
-    <row r="102" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B102" s="148">
         <v>22</v>
       </c>
@@ -20813,7 +20894,7 @@
       <c r="P102" s="8"/>
       <c r="Q102" s="15"/>
     </row>
-    <row r="103" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B103" s="148">
         <v>6</v>
       </c>
@@ -20859,7 +20940,7 @@
       <c r="P103" s="8"/>
       <c r="Q103" s="15"/>
     </row>
-    <row r="104" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B104" s="148">
         <v>91</v>
       </c>
@@ -20905,7 +20986,7 @@
       <c r="P104" s="8"/>
       <c r="Q104" s="15"/>
     </row>
-    <row r="105" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B105" s="148">
         <v>21</v>
       </c>
@@ -20951,7 +21032,7 @@
       <c r="P105" s="8"/>
       <c r="Q105" s="15"/>
     </row>
-    <row r="106" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B106" s="148">
         <v>20</v>
       </c>
@@ -20997,7 +21078,7 @@
       <c r="P106" s="8"/>
       <c r="Q106" s="15"/>
     </row>
-    <row r="107" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B107" s="148">
         <v>62</v>
       </c>
@@ -21043,7 +21124,7 @@
       <c r="P107" s="8"/>
       <c r="Q107" s="15"/>
     </row>
-    <row r="108" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B108" s="148">
         <v>79</v>
       </c>
@@ -21089,7 +21170,7 @@
       <c r="P108" s="8"/>
       <c r="Q108" s="15"/>
     </row>
-    <row r="109" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B109" s="148">
         <v>115</v>
       </c>
@@ -21135,7 +21216,7 @@
       <c r="P109" s="8"/>
       <c r="Q109" s="15"/>
     </row>
-    <row r="110" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B110" s="148">
         <v>55</v>
       </c>
@@ -21181,7 +21262,7 @@
       <c r="P110" s="8"/>
       <c r="Q110" s="15"/>
     </row>
-    <row r="111" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B111" s="148">
         <v>116</v>
       </c>
@@ -21227,7 +21308,7 @@
       <c r="P111" s="8"/>
       <c r="Q111" s="15"/>
     </row>
-    <row r="112" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B112" s="148">
         <v>111</v>
       </c>
@@ -21273,7 +21354,7 @@
       <c r="P112" s="8"/>
       <c r="Q112" s="15"/>
     </row>
-    <row r="113" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B113" s="148">
         <v>101</v>
       </c>
@@ -21319,7 +21400,7 @@
       <c r="P113" s="8"/>
       <c r="Q113" s="15"/>
     </row>
-    <row r="114" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B114" s="148">
         <v>52</v>
       </c>
@@ -21365,7 +21446,7 @@
       <c r="P114" s="8"/>
       <c r="Q114" s="15"/>
     </row>
-    <row r="115" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B115" s="148">
         <v>133</v>
       </c>
@@ -21411,7 +21492,7 @@
       <c r="P115" s="8"/>
       <c r="Q115" s="15"/>
     </row>
-    <row r="116" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B116" s="148">
         <v>59</v>
       </c>
@@ -21457,7 +21538,7 @@
       <c r="P116" s="8"/>
       <c r="Q116" s="15"/>
     </row>
-    <row r="117" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B117" s="148">
         <v>82</v>
       </c>
@@ -21503,7 +21584,7 @@
       <c r="P117" s="8"/>
       <c r="Q117" s="15"/>
     </row>
-    <row r="118" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B118" s="148">
         <v>128</v>
       </c>
@@ -21549,7 +21630,7 @@
       <c r="P118" s="8"/>
       <c r="Q118" s="15"/>
     </row>
-    <row r="119" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B119" s="148">
         <v>80</v>
       </c>
@@ -21595,7 +21676,7 @@
       <c r="P119" s="8"/>
       <c r="Q119" s="15"/>
     </row>
-    <row r="120" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B120" s="148">
         <v>15</v>
       </c>
@@ -21641,7 +21722,7 @@
       <c r="P120" s="8"/>
       <c r="Q120" s="15"/>
     </row>
-    <row r="121" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B121" s="148">
         <v>28</v>
       </c>
@@ -21687,7 +21768,7 @@
       <c r="P121" s="8"/>
       <c r="Q121" s="15"/>
     </row>
-    <row r="122" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B122" s="148">
         <v>75</v>
       </c>
@@ -21733,7 +21814,7 @@
       <c r="P122" s="8"/>
       <c r="Q122" s="15"/>
     </row>
-    <row r="123" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B123" s="148">
         <v>132</v>
       </c>
@@ -21779,7 +21860,7 @@
       <c r="P123" s="8"/>
       <c r="Q123" s="15"/>
     </row>
-    <row r="124" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B124" s="148">
         <v>61</v>
       </c>
@@ -21825,7 +21906,7 @@
       <c r="P124" s="8"/>
       <c r="Q124" s="15"/>
     </row>
-    <row r="125" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B125" s="148">
         <v>24</v>
       </c>
@@ -21871,7 +21952,7 @@
       <c r="P125" s="8"/>
       <c r="Q125" s="15"/>
     </row>
-    <row r="126" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B126" s="148">
         <v>113</v>
       </c>
@@ -21917,7 +21998,7 @@
       <c r="P126" s="8"/>
       <c r="Q126" s="15"/>
     </row>
-    <row r="127" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B127" s="148">
         <v>25</v>
       </c>
@@ -21963,7 +22044,7 @@
       <c r="P127" s="8"/>
       <c r="Q127" s="15"/>
     </row>
-    <row r="128" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B128" s="148">
         <v>97</v>
       </c>
@@ -22009,7 +22090,7 @@
       <c r="P128" s="8"/>
       <c r="Q128" s="15"/>
     </row>
-    <row r="129" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B129" s="148">
         <v>9</v>
       </c>
@@ -22055,7 +22136,7 @@
       <c r="P129" s="8"/>
       <c r="Q129" s="15"/>
     </row>
-    <row r="130" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B130" s="148">
         <v>138</v>
       </c>
@@ -22101,7 +22182,7 @@
       <c r="P130" s="8"/>
       <c r="Q130" s="15"/>
     </row>
-    <row r="131" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B131" s="148">
         <v>130</v>
       </c>
@@ -22147,7 +22228,7 @@
       <c r="P131" s="8"/>
       <c r="Q131" s="15"/>
     </row>
-    <row r="132" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B132" s="148">
         <v>71</v>
       </c>
@@ -22193,7 +22274,7 @@
       <c r="P132" s="8"/>
       <c r="Q132" s="15"/>
     </row>
-    <row r="133" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B133" s="148">
         <v>68</v>
       </c>
@@ -22239,7 +22320,7 @@
       <c r="P133" s="8"/>
       <c r="Q133" s="15"/>
     </row>
-    <row r="134" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B134" s="148">
         <v>134</v>
       </c>
@@ -22285,7 +22366,7 @@
       <c r="P134" s="8"/>
       <c r="Q134" s="15"/>
     </row>
-    <row r="135" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B135" s="148">
         <v>112</v>
       </c>
@@ -22331,7 +22412,7 @@
       <c r="P135" s="8"/>
       <c r="Q135" s="15"/>
     </row>
-    <row r="136" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B136" s="148">
         <v>70</v>
       </c>
@@ -22377,7 +22458,7 @@
       <c r="P136" s="8"/>
       <c r="Q136" s="15"/>
     </row>
-    <row r="137" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B137" s="148">
         <v>34</v>
       </c>
@@ -22423,7 +22504,7 @@
       <c r="P137" s="8"/>
       <c r="Q137" s="15"/>
     </row>
-    <row r="138" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B138" s="148">
         <v>108</v>
       </c>
@@ -22469,7 +22550,7 @@
       <c r="P138" s="8"/>
       <c r="Q138" s="15"/>
     </row>
-    <row r="139" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B139" s="148">
         <v>14</v>
       </c>
@@ -22515,7 +22596,7 @@
       <c r="P139" s="8"/>
       <c r="Q139" s="15"/>
     </row>
-    <row r="140" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B140" s="148">
         <v>51</v>
       </c>
@@ -22561,7 +22642,7 @@
       <c r="P140" s="8"/>
       <c r="Q140" s="15"/>
     </row>
-    <row r="141" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B141" s="148">
         <v>4</v>
       </c>
@@ -22607,7 +22688,7 @@
       <c r="P141" s="8"/>
       <c r="Q141" s="15"/>
     </row>
-    <row r="142" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B142" s="148">
         <v>29</v>
       </c>
@@ -22654,7 +22735,7 @@
       <c r="Q142" s="17"/>
       <c r="R142" s="17"/>
     </row>
-    <row r="143" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B143" s="148">
         <v>5</v>
       </c>
@@ -22699,7 +22780,7 @@
       </c>
       <c r="P143" s="8"/>
     </row>
-    <row r="144" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B144" s="148">
         <v>94</v>
       </c>
@@ -22744,7 +22825,7 @@
       </c>
       <c r="P144" s="8"/>
     </row>
-    <row r="145" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:42" x14ac:dyDescent="0.2">
       <c r="B145" s="148">
         <v>77</v>
       </c>
@@ -22791,7 +22872,7 @@
       <c r="Q145" s="18"/>
       <c r="R145" s="18"/>
     </row>
-    <row r="146" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B146" s="157">
         <v>99</v>
       </c>
@@ -22836,12 +22917,12 @@
       </c>
       <c r="P146" s="8"/>
     </row>
-    <row r="147" spans="1:42" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:42" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G147" s="22"/>
       <c r="N147" s="19"/>
       <c r="P147" s="19"/>
     </row>
-    <row r="148" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:42" x14ac:dyDescent="0.2">
       <c r="B148" s="20"/>
       <c r="C148" s="21"/>
       <c r="E148" s="20"/>
@@ -22853,7 +22934,7 @@
       <c r="K148" s="20"/>
       <c r="L148" s="20"/>
     </row>
-    <row r="149" spans="1:42" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:42" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B149" s="40"/>
       <c r="C149" s="47"/>
       <c r="D149" s="47"/>
@@ -22876,7 +22957,7 @@
       <c r="U149" s="23"/>
       <c r="V149" s="23"/>
     </row>
-    <row r="150" spans="1:42" s="18" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:42" s="18" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B150" s="165"/>
       <c r="C150" s="166" t="s">
         <v>225</v>
@@ -22921,7 +23002,7 @@
       <c r="AO150"/>
       <c r="AP150"/>
     </row>
-    <row r="151" spans="1:42" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:42" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B151" s="172"/>
       <c r="C151" s="68"/>
       <c r="D151" s="68"/>
@@ -22962,7 +23043,7 @@
       <c r="AO151" s="18"/>
       <c r="AP151" s="18"/>
     </row>
-    <row r="152" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:42" x14ac:dyDescent="0.2">
       <c r="B152" s="172"/>
       <c r="C152" s="51" t="s">
         <v>207</v>
@@ -22989,7 +23070,7 @@
       <c r="U152" s="39"/>
       <c r="V152" s="23"/>
     </row>
-    <row r="153" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:42" x14ac:dyDescent="0.2">
       <c r="B153" s="172"/>
       <c r="C153" s="51" t="s">
         <v>178</v>
@@ -23016,7 +23097,7 @@
       <c r="U153" s="39"/>
       <c r="V153" s="23"/>
     </row>
-    <row r="154" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B154" s="172"/>
       <c r="C154" s="51" t="s">
         <v>179</v>
@@ -23043,7 +23124,7 @@
       <c r="U154" s="39"/>
       <c r="V154" s="23"/>
     </row>
-    <row r="155" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B155" s="172"/>
       <c r="D155" s="336"/>
       <c r="E155" s="336"/>
@@ -23065,7 +23146,7 @@
       <c r="U155" s="111"/>
       <c r="V155" s="23"/>
     </row>
-    <row r="156" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:42" x14ac:dyDescent="0.2">
       <c r="B156" s="172"/>
       <c r="D156" s="336"/>
       <c r="E156" s="336"/>
@@ -23087,7 +23168,7 @@
       <c r="U156" s="111"/>
       <c r="V156" s="23"/>
     </row>
-    <row r="157" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A157" s="9"/>
       <c r="B157" s="172"/>
       <c r="C157" s="51" t="s">
@@ -23115,7 +23196,7 @@
       <c r="U157" s="111"/>
       <c r="V157" s="23"/>
     </row>
-    <row r="158" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A158" s="9"/>
       <c r="B158" s="172"/>
       <c r="C158" s="51"/>
@@ -23139,7 +23220,7 @@
       <c r="U158" s="114"/>
       <c r="V158" s="23"/>
     </row>
-    <row r="159" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A159" s="9"/>
       <c r="B159" s="175"/>
       <c r="C159" s="39"/>
@@ -23163,7 +23244,7 @@
       <c r="U159" s="114"/>
       <c r="V159" s="23"/>
     </row>
-    <row r="160" spans="1:42" ht="30" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:42" ht="27" x14ac:dyDescent="0.2">
       <c r="A160" s="9"/>
       <c r="B160" s="175"/>
       <c r="C160" s="296" t="s">
@@ -23191,7 +23272,7 @@
       <c r="U160" s="114"/>
       <c r="V160" s="23"/>
     </row>
-    <row r="161" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B161" s="175"/>
       <c r="C161" s="115" t="s">
         <v>145</v>
@@ -23218,7 +23299,7 @@
       <c r="U161" s="39"/>
       <c r="V161" s="39"/>
     </row>
-    <row r="162" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B162" s="175"/>
       <c r="C162" s="115" t="s">
         <v>146</v>
@@ -23245,7 +23326,7 @@
       <c r="U162" s="39"/>
       <c r="V162" s="23"/>
     </row>
-    <row r="163" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B163" s="175"/>
       <c r="C163" s="332" t="s">
         <v>224</v>
@@ -23270,7 +23351,7 @@
       <c r="U163" s="23"/>
       <c r="V163" s="23"/>
     </row>
-    <row r="164" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B164" s="297"/>
       <c r="C164" s="185"/>
       <c r="D164" s="298"/>
@@ -23287,13 +23368,13 @@
       <c r="O164" s="299"/>
     </row>
   </sheetData>
-  <autoFilter ref="B6:O6"/>
+  <autoFilter ref="B6:O6" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <mergeCells count="2">
     <mergeCell ref="D157:O159"/>
     <mergeCell ref="D154:O156"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C163" r:id="rId1"/>
+    <hyperlink ref="C163" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
